--- a/analysis/KEGG_raw_data/PNA79_30m_vs_PNAscr_30m_KEGG_FNN_30.xlsx
+++ b/analysis/KEGG_raw_data/PNA79_30m_vs_PNAscr_30m_KEGG_FNN_30.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="294">
   <si>
     <t>NGenes</t>
   </si>
@@ -38,6 +38,9 @@
     <t>GENES</t>
   </si>
   <si>
+    <t>fnu04981</t>
+  </si>
+  <si>
     <t>fnu03440</t>
   </si>
   <si>
@@ -56,54 +59,60 @@
     <t>fnu00330</t>
   </si>
   <si>
+    <t>fnu00670</t>
+  </si>
+  <si>
+    <t>fnu04122</t>
+  </si>
+  <si>
+    <t>fnu00790</t>
+  </si>
+  <si>
+    <t>fnu00470</t>
+  </si>
+  <si>
+    <t>fnu04980</t>
+  </si>
+  <si>
+    <t>rpoE</t>
+  </si>
+  <si>
+    <t>fnu01503</t>
+  </si>
+  <si>
+    <t>fnu02010</t>
+  </si>
+  <si>
     <t>fnu00760</t>
   </si>
   <si>
+    <t>fnu02060</t>
+  </si>
+  <si>
+    <t>fnu00300</t>
+  </si>
+  <si>
+    <t>fnu00074</t>
+  </si>
+  <si>
+    <t>fnu00521</t>
+  </si>
+  <si>
+    <t>fnu00230</t>
+  </si>
+  <si>
+    <t>fnu03030</t>
+  </si>
+  <si>
+    <t>fnu03010</t>
+  </si>
+  <si>
+    <t>fnu00340</t>
+  </si>
+  <si>
     <t>fnu00920</t>
   </si>
   <si>
-    <t>fnu00670</t>
-  </si>
-  <si>
-    <t>fnu04122</t>
-  </si>
-  <si>
-    <t>fnu00790</t>
-  </si>
-  <si>
-    <t>fnu00470</t>
-  </si>
-  <si>
-    <t>rpoE</t>
-  </si>
-  <si>
-    <t>fnu02060</t>
-  </si>
-  <si>
-    <t>fnu00300</t>
-  </si>
-  <si>
-    <t>fnu00521</t>
-  </si>
-  <si>
-    <t>fnu02010</t>
-  </si>
-  <si>
-    <t>fnu00230</t>
-  </si>
-  <si>
-    <t>fnu01503</t>
-  </si>
-  <si>
-    <t>fnu03030</t>
-  </si>
-  <si>
-    <t>fnu03010</t>
-  </si>
-  <si>
-    <t>fnu00340</t>
-  </si>
-  <si>
     <t>fnu00061</t>
   </si>
   <si>
@@ -128,12 +137,12 @@
     <t>fnu00900</t>
   </si>
   <si>
+    <t>fnu01501</t>
+  </si>
+  <si>
     <t>fnu03018</t>
   </si>
   <si>
-    <t>fnu01501</t>
-  </si>
-  <si>
     <t>fnu00523</t>
   </si>
   <si>
@@ -146,6 +155,9 @@
     <t>fnu00520</t>
   </si>
   <si>
+    <t>fnu00410</t>
+  </si>
+  <si>
     <t>fnu00630</t>
   </si>
   <si>
@@ -155,24 +167,21 @@
     <t>fnu00362</t>
   </si>
   <si>
+    <t>fnu01212</t>
+  </si>
+  <si>
     <t>fnu00460</t>
   </si>
   <si>
-    <t>fnu01212</t>
-  </si>
-  <si>
     <t>fnu00051</t>
   </si>
   <si>
+    <t>fnu00250</t>
+  </si>
+  <si>
     <t>fnu01100</t>
   </si>
   <si>
-    <t>fnu00250</t>
-  </si>
-  <si>
-    <t>fnu00410</t>
-  </si>
-  <si>
     <t>fnu01230</t>
   </si>
   <si>
@@ -182,130 +191,136 @@
     <t>fnu03060</t>
   </si>
   <si>
+    <t>fnu00541</t>
+  </si>
+  <si>
+    <t>fnu03410</t>
+  </si>
+  <si>
+    <t>fnu00270</t>
+  </si>
+  <si>
+    <t>fnu00970</t>
+  </si>
+  <si>
+    <t>fnu00280</t>
+  </si>
+  <si>
+    <t>fnu00860</t>
+  </si>
+  <si>
+    <t>fnu00680</t>
+  </si>
+  <si>
+    <t>fnu01210</t>
+  </si>
+  <si>
+    <t>fnu00040</t>
+  </si>
+  <si>
+    <t>fnu00380</t>
+  </si>
+  <si>
+    <t>fnu02024</t>
+  </si>
+  <si>
+    <t>fnu00030</t>
+  </si>
+  <si>
+    <t>fnu00450</t>
+  </si>
+  <si>
+    <t>fnu00260</t>
+  </si>
+  <si>
+    <t>fnu00740</t>
+  </si>
+  <si>
+    <t>fnu03420</t>
+  </si>
+  <si>
+    <t>fnu00643</t>
+  </si>
+  <si>
+    <t>fnu00400</t>
+  </si>
+  <si>
+    <t>fnu03020</t>
+  </si>
+  <si>
+    <t>fnu01110</t>
+  </si>
+  <si>
+    <t>fnu00480</t>
+  </si>
+  <si>
+    <t>fnu00360</t>
+  </si>
+  <si>
+    <t>fnu01250</t>
+  </si>
+  <si>
+    <t>fnu00020</t>
+  </si>
+  <si>
+    <t>fnu00552</t>
+  </si>
+  <si>
+    <t>fnu02020</t>
+  </si>
+  <si>
+    <t>fnu01120</t>
+  </si>
+  <si>
+    <t>fnu00650</t>
+  </si>
+  <si>
+    <t>fnu00310</t>
+  </si>
+  <si>
+    <t>fnu00190</t>
+  </si>
+  <si>
+    <t>fnu00071</t>
+  </si>
+  <si>
+    <t>fnu01502</t>
+  </si>
+  <si>
+    <t>fnu00770</t>
+  </si>
+  <si>
+    <t>fnu00010</t>
+  </si>
+  <si>
+    <t>fnu00720</t>
+  </si>
+  <si>
+    <t>fnu00620</t>
+  </si>
+  <si>
+    <t>fnu00430</t>
+  </si>
+  <si>
+    <t>fnu01200</t>
+  </si>
+  <si>
+    <t>fnu00500</t>
+  </si>
+  <si>
+    <t>fnu00564</t>
+  </si>
+  <si>
+    <t>fnu00540</t>
+  </si>
+  <si>
+    <t>fnu00640</t>
+  </si>
+  <si>
     <t>fnu00220</t>
   </si>
   <si>
-    <t>fnu02024</t>
-  </si>
-  <si>
-    <t>fnu00541</t>
-  </si>
-  <si>
-    <t>fnu03410</t>
-  </si>
-  <si>
-    <t>fnu00270</t>
-  </si>
-  <si>
-    <t>fnu00970</t>
-  </si>
-  <si>
-    <t>fnu01110</t>
-  </si>
-  <si>
-    <t>fnu00860</t>
-  </si>
-  <si>
-    <t>fnu00680</t>
-  </si>
-  <si>
-    <t>fnu01210</t>
-  </si>
-  <si>
-    <t>fnu00040</t>
-  </si>
-  <si>
-    <t>fnu00380</t>
-  </si>
-  <si>
-    <t>fnu00030</t>
-  </si>
-  <si>
-    <t>fnu00280</t>
-  </si>
-  <si>
-    <t>fnu00450</t>
-  </si>
-  <si>
-    <t>fnu00260</t>
-  </si>
-  <si>
-    <t>fnu00740</t>
-  </si>
-  <si>
-    <t>fnu03420</t>
-  </si>
-  <si>
-    <t>fnu00643</t>
-  </si>
-  <si>
-    <t>fnu00400</t>
-  </si>
-  <si>
-    <t>fnu03020</t>
-  </si>
-  <si>
-    <t>fnu00480</t>
-  </si>
-  <si>
-    <t>fnu00360</t>
-  </si>
-  <si>
-    <t>fnu01250</t>
-  </si>
-  <si>
-    <t>fnu00020</t>
-  </si>
-  <si>
-    <t>fnu00552</t>
-  </si>
-  <si>
-    <t>fnu01120</t>
-  </si>
-  <si>
-    <t>fnu00310</t>
-  </si>
-  <si>
-    <t>fnu00650</t>
-  </si>
-  <si>
-    <t>fnu00190</t>
-  </si>
-  <si>
-    <t>fnu01502</t>
-  </si>
-  <si>
-    <t>fnu00770</t>
-  </si>
-  <si>
-    <t>fnu00071</t>
-  </si>
-  <si>
-    <t>fnu00010</t>
-  </si>
-  <si>
-    <t>fnu00620</t>
-  </si>
-  <si>
-    <t>fnu00430</t>
-  </si>
-  <si>
-    <t>fnu00500</t>
-  </si>
-  <si>
-    <t>fnu01200</t>
-  </si>
-  <si>
-    <t>fnu00564</t>
-  </si>
-  <si>
-    <t>fnu00540</t>
-  </si>
-  <si>
-    <t>fnu00640</t>
-  </si>
-  <si>
-    <t>fnu02020</t>
+    <t>fnu00710</t>
   </si>
   <si>
     <t>Up</t>
@@ -314,6 +329,9 @@
     <t>Down</t>
   </si>
   <si>
+    <t>Folate transport and metabolism</t>
+  </si>
+  <si>
     <t>Homologous recombination</t>
   </si>
   <si>
@@ -332,51 +350,57 @@
     <t>Arginine and proline metabolism</t>
   </si>
   <si>
+    <t>One carbon pool by folate</t>
+  </si>
+  <si>
+    <t>Sulfur relay system</t>
+  </si>
+  <si>
+    <t>Folate biosynthesis</t>
+  </si>
+  <si>
+    <t>D-Amino acid metabolism</t>
+  </si>
+  <si>
+    <t>Cobalamin transport and metabolism</t>
+  </si>
+  <si>
+    <t>Cationic antimicrobial peptide (CAMP) resistance</t>
+  </si>
+  <si>
+    <t>ABC transporters</t>
+  </si>
+  <si>
     <t>Nicotinate and nicotinamide metabolism</t>
   </si>
   <si>
+    <t>Phosphotransferase system (PTS)</t>
+  </si>
+  <si>
+    <t>Lysine biosynthesis</t>
+  </si>
+  <si>
+    <t>Mycolic acid biosynthesis</t>
+  </si>
+  <si>
+    <t>Streptomycin biosynthesis</t>
+  </si>
+  <si>
+    <t>Purine metabolism</t>
+  </si>
+  <si>
+    <t>DNA replication</t>
+  </si>
+  <si>
+    <t>Ribosome</t>
+  </si>
+  <si>
+    <t>Histidine metabolism</t>
+  </si>
+  <si>
     <t>Sulfur metabolism</t>
   </si>
   <si>
-    <t>One carbon pool by folate</t>
-  </si>
-  <si>
-    <t>Sulfur relay system</t>
-  </si>
-  <si>
-    <t>Folate biosynthesis</t>
-  </si>
-  <si>
-    <t>D-Amino acid metabolism</t>
-  </si>
-  <si>
-    <t>Phosphotransferase system (PTS)</t>
-  </si>
-  <si>
-    <t>Lysine biosynthesis</t>
-  </si>
-  <si>
-    <t>Streptomycin biosynthesis</t>
-  </si>
-  <si>
-    <t>ABC transporters</t>
-  </si>
-  <si>
-    <t>Purine metabolism</t>
-  </si>
-  <si>
-    <t>Cationic antimicrobial peptide (CAMP) resistance</t>
-  </si>
-  <si>
-    <t>DNA replication</t>
-  </si>
-  <si>
-    <t>Ribosome</t>
-  </si>
-  <si>
-    <t>Histidine metabolism</t>
-  </si>
-  <si>
     <t>Fatty acid biosynthesis</t>
   </si>
   <si>
@@ -401,12 +425,12 @@
     <t>Terpenoid backbone biosynthesis</t>
   </si>
   <si>
+    <t>beta-Lactam resistance</t>
+  </si>
+  <si>
     <t>RNA degradation</t>
   </si>
   <si>
-    <t>beta-Lactam resistance</t>
-  </si>
-  <si>
     <t>Polyketide sugar unit biosynthesis</t>
   </si>
   <si>
@@ -419,6 +443,9 @@
     <t>Amino sugar and nucleotide sugar metabolism</t>
   </si>
   <si>
+    <t>beta-Alanine metabolism</t>
+  </si>
+  <si>
     <t>Glyoxylate and dicarboxylate metabolism</t>
   </si>
   <si>
@@ -428,24 +455,21 @@
     <t>Benzoate degradation</t>
   </si>
   <si>
+    <t>Fatty acid metabolism</t>
+  </si>
+  <si>
     <t>Cyanoamino acid metabolism</t>
   </si>
   <si>
-    <t>Fatty acid metabolism</t>
-  </si>
-  <si>
     <t>Fructose and mannose metabolism</t>
   </si>
   <si>
+    <t>Alanine, aspartate and glutamate metabolism</t>
+  </si>
+  <si>
     <t>Metabolic pathways</t>
   </si>
   <si>
-    <t>Alanine, aspartate and glutamate metabolism</t>
-  </si>
-  <si>
-    <t>beta-Alanine metabolism</t>
-  </si>
-  <si>
     <t>Biosynthesis of amino acids</t>
   </si>
   <si>
@@ -455,130 +479,139 @@
     <t>Protein export</t>
   </si>
   <si>
+    <t>O-Antigen nucleotide sugar biosynthesis</t>
+  </si>
+  <si>
+    <t>Base excision repair</t>
+  </si>
+  <si>
+    <t>Cysteine and methionine metabolism</t>
+  </si>
+  <si>
+    <t>Aminoacyl-tRNA biosynthesis</t>
+  </si>
+  <si>
+    <t>Valine, leucine and isoleucine degradation</t>
+  </si>
+  <si>
+    <t>Porphyrin metabolism</t>
+  </si>
+  <si>
+    <t>Methane metabolism</t>
+  </si>
+  <si>
+    <t>2-Oxocarboxylic acid metabolism</t>
+  </si>
+  <si>
+    <t>Pentose and glucuronate interconversions</t>
+  </si>
+  <si>
+    <t>Tryptophan metabolism</t>
+  </si>
+  <si>
+    <t>Quorum sensing</t>
+  </si>
+  <si>
+    <t>Pentose phosphate pathway</t>
+  </si>
+  <si>
+    <t>Selenocompound metabolism</t>
+  </si>
+  <si>
+    <t>Glycine, serine and threonine metabolism</t>
+  </si>
+  <si>
+    <t>Riboflavin metabolism</t>
+  </si>
+  <si>
+    <t>Nucleotide excision repair</t>
+  </si>
+  <si>
+    <t>Styrene degradation</t>
+  </si>
+  <si>
+    <t>Phenylalanine, tyrosine and tryptophan biosynthesis</t>
+  </si>
+  <si>
+    <t>RNA polymerase</t>
+  </si>
+  <si>
+    <t>Biosynthesis of secondary metabolites</t>
+  </si>
+  <si>
+    <t>Glutathione metabolism</t>
+  </si>
+  <si>
+    <t>Phenylalanine metabolism</t>
+  </si>
+  <si>
+    <t>Biosynthesis of nucleotide sugars</t>
+  </si>
+  <si>
+    <t>Citrate cycle (TCA cycle)</t>
+  </si>
+  <si>
+    <t>Teichoic acid biosynthesis</t>
+  </si>
+  <si>
+    <t>Two-component system</t>
+  </si>
+  <si>
+    <t>Microbial metabolism in diverse environments</t>
+  </si>
+  <si>
+    <t>Butanoate metabolism</t>
+  </si>
+  <si>
+    <t>Lysine degradation</t>
+  </si>
+  <si>
+    <t>Oxidative phosphorylation</t>
+  </si>
+  <si>
+    <t>Fatty acid degradation</t>
+  </si>
+  <si>
+    <t>Vancomycin resistance</t>
+  </si>
+  <si>
+    <t>Pantothenate and CoA biosynthesis</t>
+  </si>
+  <si>
+    <t>Glycolysis / Gluconeogenesis</t>
+  </si>
+  <si>
+    <t>Other carbon fixation pathways</t>
+  </si>
+  <si>
+    <t>Pyruvate metabolism</t>
+  </si>
+  <si>
+    <t>Taurine and hypotaurine metabolism</t>
+  </si>
+  <si>
+    <t>Carbon metabolism</t>
+  </si>
+  <si>
+    <t>Starch and sucrose metabolism</t>
+  </si>
+  <si>
+    <t>Glycerophospholipid metabolism</t>
+  </si>
+  <si>
+    <t>Lipopolysaccharide biosynthesis</t>
+  </si>
+  <si>
+    <t>Propanoate metabolism</t>
+  </si>
+  <si>
     <t>Arginine biosynthesis</t>
   </si>
   <si>
-    <t>Quorum sensing</t>
-  </si>
-  <si>
-    <t>O-Antigen nucleotide sugar biosynthesis</t>
-  </si>
-  <si>
-    <t>Base excision repair</t>
-  </si>
-  <si>
-    <t>Cysteine and methionine metabolism</t>
-  </si>
-  <si>
-    <t>Aminoacyl-tRNA biosynthesis</t>
-  </si>
-  <si>
-    <t>Biosynthesis of secondary metabolites</t>
-  </si>
-  <si>
-    <t>Porphyrin metabolism</t>
-  </si>
-  <si>
-    <t>Methane metabolism</t>
-  </si>
-  <si>
-    <t>2-Oxocarboxylic acid metabolism</t>
-  </si>
-  <si>
-    <t>Pentose and glucuronate interconversions</t>
-  </si>
-  <si>
-    <t>Tryptophan metabolism</t>
-  </si>
-  <si>
-    <t>Pentose phosphate pathway</t>
-  </si>
-  <si>
-    <t>Valine, leucine and isoleucine degradation</t>
-  </si>
-  <si>
-    <t>Selenocompound metabolism</t>
-  </si>
-  <si>
-    <t>Glycine, serine and threonine metabolism</t>
-  </si>
-  <si>
-    <t>Riboflavin metabolism</t>
-  </si>
-  <si>
-    <t>Nucleotide excision repair</t>
-  </si>
-  <si>
-    <t>Styrene degradation</t>
-  </si>
-  <si>
-    <t>Phenylalanine, tyrosine and tryptophan biosynthesis</t>
-  </si>
-  <si>
-    <t>RNA polymerase</t>
-  </si>
-  <si>
-    <t>Glutathione metabolism</t>
-  </si>
-  <si>
-    <t>Phenylalanine metabolism</t>
-  </si>
-  <si>
-    <t>Biosynthesis of nucleotide sugars</t>
-  </si>
-  <si>
-    <t>Citrate cycle (TCA cycle)</t>
-  </si>
-  <si>
-    <t>Teichoic acid biosynthesis</t>
-  </si>
-  <si>
-    <t>Microbial metabolism in diverse environments</t>
-  </si>
-  <si>
-    <t>Lysine degradation</t>
-  </si>
-  <si>
-    <t>Butanoate metabolism</t>
-  </si>
-  <si>
-    <t>Oxidative phosphorylation</t>
-  </si>
-  <si>
-    <t>Vancomycin resistance</t>
-  </si>
-  <si>
-    <t>Pantothenate and CoA biosynthesis</t>
-  </si>
-  <si>
-    <t>Fatty acid degradation</t>
-  </si>
-  <si>
-    <t>Glycolysis / Gluconeogenesis</t>
-  </si>
-  <si>
-    <t>Pyruvate metabolism</t>
-  </si>
-  <si>
-    <t>Taurine and hypotaurine metabolism</t>
-  </si>
-  <si>
-    <t>Starch and sucrose metabolism</t>
-  </si>
-  <si>
-    <t>Carbon metabolism</t>
-  </si>
-  <si>
-    <t>Glycerophospholipid metabolism</t>
-  </si>
-  <si>
-    <t>Lipopolysaccharide biosynthesis</t>
-  </si>
-  <si>
-    <t>Propanoate metabolism</t>
-  </si>
-  <si>
-    <t>Two-component system</t>
+    <t>Carbon fixation by Calvin cycle</t>
+  </si>
+  <si>
+    <t>cds-C4N14_04180;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_07660</t>
   </si>
   <si>
     <t>cds-C4N14_04335;cds-C4N14_04465;cds-C4N14_04760;cds-C4N14_05260;cds-C4N14_10095;cds-C4N14_09560;cds-C4N14_09505;cds-C4N14_09150;cds-C4N14_07585;cds-C4N14_06635;cds-C4N14_06360;cds-C4N14_06045;cds-C4N14_05595;cds-C4N14_10345;cds-C4N14_10885;cds-C4N14_00445;cds-C4N14_00855;cds-C4N14_03915;cds-C4N14_02900;cds-C4N14_02340</t>
@@ -599,13 +632,7 @@
     <t>cds-C4N14_09955;cds-C4N14_09725;cds-C4N14_08445;cds-C4N14_06875;cds-C4N14_06380</t>
   </si>
   <si>
-    <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_04695;cds-C4N14_05140;cds-C4N14_10005;cds-C4N14_06485;cds-C4N14_06200;cds-C4N14_06120;cds-C4N14_03430</t>
-  </si>
-  <si>
-    <t>cds-C4N14_07115;cds-C4N14_06885;cds-C4N14_06030;cds-C4N14_01300</t>
-  </si>
-  <si>
-    <t>cds-C4N14_04180;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_08525;cds-C4N14_08515;cds-C4N14_07660;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_10470;cds-C4N14_10865;cds-C4N14_10870;cds-C4N14_02080</t>
+    <t>cds-C4N14_04180;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_05175;cds-C4N14_08525;cds-C4N14_08515;cds-C4N14_07660;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_10470;cds-C4N14_10865;cds-C4N14_02080</t>
   </si>
   <si>
     <t>cds-C4N14_02625;cds-C4N14_08385;cds-C4N14_01345;cds-C4N14_01350;cds-C4N14_03475</t>
@@ -617,27 +644,36 @@
     <t>cds-C4N14_10125;cds-C4N14_09770;cds-C4N14_09465;cds-C4N14_06320;cds-C4N14_10420;cds-C4N14_10690;cds-C4N14_10710;cds-C4N14_00495;cds-C4N14_01240;cds-C4N14_03755;cds-C4N14_03750</t>
   </si>
   <si>
+    <t>cds-C4N14_04180;cds-C4N14_05600</t>
+  </si>
+  <si>
     <t>cds-C4N14_03280;cds-C4N14_02960;cds-C4N14_09830;cds-C4N14_05965;cds-FoxI;cds-C4N14_03355;cds-C4N14_09820;cds-C4N14_09825;cds-C4N14_09130;cds-C4N14_09125;cds-C4N14_08200;cds-C4N14_07915;cds-C4N14_07920;cds-C4N14_09840;cds-C4N14_05930;cds-C4N14_09850;cds-C4N14_06785;cds-C4N14_03135;cds-C4N14_03630;cds-C4N14_05935;cds-C4N14_06060;cds-C4N14_05940;cds-C4N14_05955;cds-C4N14_01185;cds-C4N14_09845;cds-C4N14_05960;cds-C4N14_07925;cds-C4N14_05945;cds-C4N14_04025;cds-C4N14_05950;cds-C4N14_06795;cds-C4N14_06065;cds-C4N14_06685;cds-C4N14_06080;cds-C4N14_06790;cds-C4N14_06090;cds-C4N14_06125;cds-C4N14_06105;cds-C4N14_03635;cds-FunR7;cds-C4N14_06085;cds-C4N14_06095;cds-C4N14_07930;cds-C4N14_06120;cds-C4N14_06070;cds-C4N14_06690;cds-C4N14_08460;cds-C4N14_06075;cds-C4N14_08420;cds-C4N14_06100;cds-C4N14_08425;cds-C4N14_08415;cds-C4N14_08440;cds-C4N14_01180;cds-C4N14_09835;cds-C4N14_06110;cds-C4N14_05525;cds-C4N14_04020;cds-C4N14_03890;cds-C4N14_08450;cds-C4N14_08430;cds-C4N14_08455;cds-C4N14_01565;cds-C4N14_01300;cds-C4N14_03940;cds-C4N14_03885;cds-C4N14_06775;cds-C4N14_06115;cds-C4N14_08435;cds-C4N14_03895;cds-C4N14_03905;cds-C4N14_08445;cds-C4N14_03900;cds-C4N14_01295;cds-C4N14_10275;cds-C4N14_06800;cds-C4N14_03935;cds-C4N14_03520;cds-C4N14_06780;cds-C4N14_03910;cds-C4N14_03535;cds-C4N14_03130;cds-C4N14_03930;cds-C4N14_03925;cds-C4N14_03915;cds-C4N14_10265;cds-C4N14_10260;cds-C4N14_07010;cds-C4N14_07005;cds-C4N14_03530;cds-C4N14_04030;cds-C4N14_03920;cds-C4N14_10255;cds-C4N14_03880;cds-C4N14_03525;cds-C4N14_10270;cds-C4N14_07030;cds-C4N14_05180;cds-C4N14_08750;cds-C4N14_08740;cds-C4N14_07015;cds-C4N14_07025;cds-C4N14_08730;cds-C4N14_05250;cds-C4N14_07020;cds-C4N14_05230;cds-C4N14_07035;cds-C4N14_05245;cds-C4N14_05240;cds-C4N14_05420;cds-C4N14_08745;cds-C4N14_08725;cds-C4N14_08735;cds-C4N14_05215;cds-C4N14_05235;cds-C4N14_05190;cds-C4N14_05220;cds-C4N14_08720;cds-C4N14_05205;cds-C4N14_05200;cds-C4N14_05185;cds-C4N14_05225;cds-C4N14_05195;cds-C4N14_05210;cds-C4N14_07040</t>
   </si>
   <si>
+    <t>cds-C4N14_09855;cds-C4N14_09255;cds-C4N14_05760;cds-C4N14_05755;cds-C4N14_05430</t>
+  </si>
+  <si>
+    <t>cds-C4N14_04685;cds-C4N14_04905;cds-C4N14_04910;cds-C4N14_04915;cds-C4N14_05265;cds-C4N14_05270;cds-C4N14_05275;cds-C4N14_09325;cds-C4N14_09320;cds-C4N14_09165;cds-C4N14_09160;cds-C4N14_09145;cds-C4N14_08950;cds-C4N14_08945;cds-C4N14_08940;cds-C4N14_08900;cds-C4N14_08895;cds-C4N14_08890;cds-C4N14_08885;cds-C4N14_08745;cds-C4N14_08220;cds-C4N14_08215;cds-C4N14_08210;cds-C4N14_07440;cds-C4N14_07015;cds-C4N14_07010;cds-C4N14_06470;cds-C4N14_06465;cds-C4N14_06460;cds-C4N14_06295;cds-C4N14_06290;cds-C4N14_06285;cds-C4N14_10570;cds-C4N14_10575;cds-C4N14_10580;cds-C4N14_10585;cds-C4N14_10590;cds-C4N14_00030;cds-C4N14_00035;cds-C4N14_00040;cds-C4N14_00045;cds-C4N14_00050;cds-C4N14_01555;cds-C4N14_01560;cds-C4N14_01565;cds-C4N14_01615;cds-C4N14_01620;cds-C4N14_01625;cds-C4N14_01630;cds-C4N14_03015;cds-C4N14_03010;cds-C4N14_03005;cds-C4N14_03000;cds-C4N14_02950;cds-C4N14_02945</t>
+  </si>
+  <si>
+    <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_04695;cds-C4N14_05140;cds-C4N14_10005;cds-C4N14_06485;cds-C4N14_06200;cds-C4N14_06120</t>
+  </si>
+  <si>
     <t>cds-C4N14_09095;cds-C4N14_09090;cds-C4N14_09080;cds-C4N14_07595;cds-C4N14_10630;cds-C4N14_10635;cds-C4N14_10880;cds-C4N14_00270;cds-C4N14_01480;cds-C4N14_01530;cds-C4N14_01535;cds-C4N14_03445</t>
   </si>
   <si>
     <t>cds-C4N14_04745;cds-C4N14_06005;cds-C4N14_10725</t>
   </si>
   <si>
+    <t>cds-C4N14_04125;cds-C4N14_10145</t>
+  </si>
+  <si>
     <t>cds-C4N14_09430;cds-C4N14_06300;cds-C4N14_05615;cds-C4N14_00890;cds-C4N14_01020</t>
   </si>
   <si>
-    <t>cds-C4N14_04685;cds-C4N14_04905;cds-C4N14_04910;cds-C4N14_04915;cds-C4N14_05265;cds-C4N14_05270;cds-C4N14_05275;cds-C4N14_09325;cds-C4N14_09320;cds-C4N14_09165;cds-C4N14_09160;cds-C4N14_09145;cds-C4N14_08950;cds-C4N14_08945;cds-C4N14_08940;cds-C4N14_08900;cds-C4N14_08895;cds-C4N14_08890;cds-C4N14_08885;cds-C4N14_08745;cds-C4N14_08220;cds-C4N14_08215;cds-C4N14_08210;cds-C4N14_07440;cds-C4N14_07015;cds-C4N14_07010;cds-C4N14_06470;cds-C4N14_06465;cds-C4N14_06460;cds-C4N14_06295;cds-C4N14_06290;cds-C4N14_06285;cds-C4N14_10570;cds-C4N14_10575;cds-C4N14_10580;cds-C4N14_10585;cds-C4N14_10590;cds-C4N14_00030;cds-C4N14_00035;cds-C4N14_00040;cds-C4N14_00045;cds-C4N14_00050;cds-C4N14_01555;cds-C4N14_01560;cds-C4N14_01565;cds-C4N14_01615;cds-C4N14_01620;cds-C4N14_01625;cds-C4N14_03015;cds-C4N14_03010;cds-C4N14_03005;cds-C4N14_03000;cds-C4N14_02950;cds-C4N14_02945</t>
-  </si>
-  <si>
     <t>cds-C4N14_01785;cds-C4N14_01780;cds-C4N14_04795;cds-C4N14_04920;cds-C4N14_05240;cds-C4N14_10005;cds-C4N14_09430;cds-C4N14_07815;cds-C4N14_07800;cds-C4N14_07545;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_05980;cds-C4N14_05620;cds-C4N14_10640;cds-C4N14_10835;cds-C4N14_10840;cds-C4N14_00370;cds-C4N14_00585;cds-C4N14_00605;cds-C4N14_03060;cds-C4N14_01845;cds-C4N14_02045</t>
   </si>
   <si>
-    <t>cds-C4N14_09255;cds-C4N14_05430</t>
-  </si>
-  <si>
     <t>cds-C4N14_04760;cds-C4N14_09560;cds-C4N14_09150;cds-C4N14_07585;cds-C4N14_05595;cds-C4N14_05505;cds-C4N14_10285;cds-C4N14_10345;cds-C4N14_00445;cds-C4N14_01175;cds-C4N14_03930;cds-C4N14_03915</t>
   </si>
   <si>
@@ -647,6 +683,9 @@
     <t>cds-C4N14_10035;cds-C4N14_09955;cds-C4N14_08930;cds-C4N14_08520;cds-C4N14_08515;cds-C4N14_08265;cds-C4N14_08260;cds-C4N14_10440;cds-C4N14_10455;cds-C4N14_10465;cds-C4N14_10470</t>
   </si>
   <si>
+    <t>cds-C4N14_07115;cds-C4N14_06885;cds-C4N14_06710;cds-C4N14_06030;cds-C4N14_01300</t>
+  </si>
+  <si>
     <t>cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04135;cds-C4N14_04250;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_09755;cds-C4N14_09260;cds-C4N14_07840;cds-C4N14_06535;cds-C4N14_03815</t>
   </si>
   <si>
@@ -671,12 +710,12 @@
     <t>cds-C4N14_02450;cds-C4N14_09835;cds-C4N14_09750;cds-C4N14_06090;cds-C4N14_05480;cds-C4N14_05470;cds-C4N14_05465;cds-C4N14_10740;cds-C4N14_00465;cds-C4N14_01475;cds-C4N14_01505</t>
   </si>
   <si>
+    <t>cds-C4N14_09855;cds-C4N14_09605;cds-C4N14_06365;cds-C4N14_06075;cds-C4N14_05760;cds-C4N14_05755;cds-C4N14_00485</t>
+  </si>
+  <si>
     <t>cds-C4N14_01725;cds-C4N14_10105;cds-C4N14_09845;cds-C4N14_09340;cds-C4N14_09195;cds-C4N14_08865;cds-C4N14_06080;cds-C4N14_01060;cds-C4N14_01390;cds-C4N14_03510;cds-C4N14_03145</t>
   </si>
   <si>
-    <t>cds-C4N14_09605;cds-C4N14_06365;cds-C4N14_06075;cds-C4N14_00485</t>
-  </si>
-  <si>
     <t>cds-C4N14_05615;cds-C4N14_00890;cds-C4N14_01020</t>
   </si>
   <si>
@@ -689,6 +728,9 @@
     <t>cds-C4N14_05230;cds-C4N14_05280;cds-C4N14_09965;cds-C4N14_09430;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07595;cds-C4N14_06480;cds-C4N14_06430;cds-C4N14_06300;cds-C4N14_05800;cds-C4N14_10695;cds-C4N14_10800;cds-C4N14_10805;cds-C4N14_00125;cds-C4N14_00270;cds-C4N14_00950;cds-C4N14_03065;cds-C4N14_01950;cds-C4N14_02205;cds-C4N14_02210;cds-C4N14_02215</t>
   </si>
   <si>
+    <t>cds-C4N14_09955;cds-C4N14_08295;cds-C4N14_00210</t>
+  </si>
+  <si>
     <t>cds-C4N14_09750;cds-C4N14_03800;cds-C4N14_03790</t>
   </si>
   <si>
@@ -698,22 +740,19 @@
     <t>cds-C4N14_04375;cds-C4N14_04380;cds-C4N14_04385;cds-C4N14_04400;cds-C4N14_09750;cds-C4N14_07070</t>
   </si>
   <si>
+    <t>cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04135;cds-C4N14_04250;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09260;cds-C4N14_08295;cds-C4N14_07840;cds-C4N14_06535;cds-C4N14_00210;cds-C4N14_03815</t>
+  </si>
+  <si>
     <t>cds-C4N14_08450;cds-C4N14_08330;cds-C4N14_07790;cds-C4N14_07470</t>
   </si>
   <si>
-    <t>cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04135;cds-C4N14_04250;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09260;cds-C4N14_08295;cds-C4N14_07840;cds-C4N14_06535;cds-C4N14_10550;cds-C4N14_00210;cds-C4N14_03815</t>
-  </si>
-  <si>
     <t>cds-C4N14_05010;cds-C4N14_10105;cds-C4N14_08230;cds-C4N14_06345;cds-C4N14_10260;cds-C4N14_10515;cds-C4N14_10630;cds-C4N14_10635;cds-C4N14_10880;cds-C4N14_03680</t>
   </si>
   <si>
-    <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_02450;cds-C4N14_02565;cds-C4N14_02625;cds-C4N14_02635;cds-C4N14_02695;cds-C4N14_02740;cds-C4N14_02745;cds-C4N14_02770;cds-C4N14_02775;cds-C4N14_02780;cds-C4N14_02800;cds-C4N14_02805;cds-C4N14_01785;cds-C4N14_01780;cds-C4N14_04115;cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04130;cds-C4N14_04135;cds-C4N14_04160;cds-C4N14_04180;cds-C4N14_04250;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04460;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_04670;cds-C4N14_04695;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04795;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_04920;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05135;cds-C4N14_05140;cds-C4N14_05175;cds-C4N14_05180;cds-C4N14_05185;cds-C4N14_05190;cds-C4N14_05195;cds-C4N14_05200;cds-C4N14_05205;cds-C4N14_05210;cds-C4N14_05215;cds-C4N14_05220;cds-C4N14_05230;cds-C4N14_05240;cds-C4N14_05280;cds-C4N14_10125;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_10085;cds-C4N14_10080;cds-C4N14_10075;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10060;cds-C4N14_10055;cds-C4N14_10045;cds-C4N14_10040;cds-C4N14_10035;cds-C4N14_10005;cds-C4N14_09985;cds-C4N14_09965;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09835;cds-C4N14_09810;cds-C4N14_09805;cds-C4N14_09785;cds-C4N14_09770;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09725;cds-C4N14_09720;cds-C4N14_09685;cds-C4N14_09605;cds-C4N14_09555;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09520;cds-C4N14_09465;cds-C4N14_09430;cds-C4N14_09330;cds-C4N14_09265;cds-C4N14_09260;cds-C4N14_09255;cds-C4N14_09250;cds-C4N14_09245;cds-C4N14_09135;cds-C4N14_09115;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08930;cds-C4N14_08920;cds-C4N14_08830;cds-C4N14_08825;cds-C4N14_08805;cds-C4N14_08690;cds-C4N14_08670;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08520;cds-C4N14_08515;cds-C4N14_08450;cds-C4N14_08445;cds-C4N14_08440;cds-C4N14_08435;cds-C4N14_08430;cds-C4N14_08410;cds-C4N14_08400;cds-C4N14_08330;cds-C4N14_08295;cds-C4N14_08265;cds-C4N14_08260;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08225;cds-C4N14_08185;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07930;cds-C4N14_07925;cds-C4N14_07920;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07840;cds-C4N14_07815;cds-C4N14_07800;cds-C4N14_07790;cds-C4N14_07725;cds-C4N14_07660;cds-C4N14_07655;cds-C4N14_07620;cds-C4N14_07615;cds-C4N14_07610;cds-C4N14_07605;cds-C4N14_07595;cds-C4N14_07565;cds-C4N14_07560;cds-C4N14_07545;cds-C4N14_07525;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07470;cds-C4N14_07415;cds-C4N14_07410;cds-C4N14_07405;cds-C4N14_07380;cds-C4N14_07370;cds-C4N14_07355;cds-C4N14_07345;cds-C4N14_07340;cds-C4N14_07325;cds-C4N14_07315;cds-C4N14_07310;cds-C4N14_07300;cds-C4N14_07290;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_07220;cds-C4N14_07175;cds-C4N14_07170;cds-C4N14_07165;cds-C4N14_07115;cds-C4N14_07100;cds-C4N14_07095;cds-C4N14_07090;cds-C4N14_07070;cds-C4N14_07025;cds-C4N14_06915;cds-C4N14_06885;cds-C4N14_06875;cds-C4N14_06680;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06535;cds-C4N14_06495;cds-C4N14_06485;cds-C4N14_06480;cds-C4N14_06430;cds-C4N14_06380;cds-C4N14_06365;cds-C4N14_06345;cds-C4N14_06320;cds-C4N14_06310;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06200;cds-C4N14_06120;cds-C4N14_06090;cds-C4N14_06075;cds-C4N14_06030;cds-C4N14_06010;cds-C4N14_06005;cds-C4N14_05980;cds-C4N14_05815;cds-C4N14_05800;cds-C4N14_05790;cds-C4N14_05745;cds-C4N14_05620;cds-C4N14_05615;cds-C4N14_05600;cds-C4N14_05580;cds-C4N14_05575;cds-C4N14_05485;cds-C4N14_05480;cds-C4N14_05475;cds-C4N14_05465;cds-C4N14_10135;cds-C4N14_10145;cds-C4N14_10260;cds-C4N14_10310;cds-C4N14_10420;cds-C4N14_10440;cds-C4N14_10455;cds-C4N14_10465;cds-C4N14_10470;cds-C4N14_10475;cds-C4N14_10485;cds-C4N14_10490;cds-C4N14_10495;cds-C4N14_10515;cds-C4N14_10525;cds-C4N14_10535;cds-C4N14_10550;cds-C4N14_10630;cds-C4N14_10635;cds-C4N14_10640;cds-C4N14_10690;cds-C4N14_10695;cds-C4N14_10700;cds-C4N14_10705;cds-C4N14_10710;cds-C4N14_10715;cds-C4N14_10725;cds-C4N14_10735;cds-C4N14_10740;cds-C4N14_10800;cds-C4N14_10805;cds-C4N14_10835;cds-C4N14_10840;cds-C4N14_10860;cds-C4N14_10865;cds-C4N14_10870;cds-C4N14_10880;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00125;cds-C4N14_00210;cds-C4N14_00215;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00370;cds-C4N14_00375;cds-C4N14_00465;cds-C4N14_00585;cds-C4N14_00590;cds-C4N14_00595;cds-C4N14_00605;cds-C4N14_00670;cds-C4N14_00890;cds-C4N14_00950;cds-C4N14_01020;cds-C4N14_01040;cds-C4N14_01055;cds-C4N14_01065;cds-C4N14_01240;cds-C4N14_01245;cds-C4N14_01250;cds-C4N14_01260;cds-C4N14_01265;cds-C4N14_01270;cds-C4N14_01275;cds-C4N14_01280;cds-C4N14_01285;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01330;cds-C4N14_01335;cds-C4N14_01340;cds-C4N14_01345;cds-C4N14_01355;cds-C4N14_01360;cds-C4N14_01365;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01475;cds-C4N14_01500;cds-C4N14_01505;cds-C4N14_01515;cds-C4N14_01585;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860;cds-C4N14_03840;cds-C4N14_03815;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03755;cds-C4N14_03750;cds-C4N14_03735;cds-C4N14_03730;cds-C4N14_03725;cds-C4N14_03720;cds-C4N14_03680;cds-C4N14_03565;cds-C4N14_03545;cds-C4N14_03530;cds-C4N14_03490;cds-C4N14_03470;cds-C4N14_03430;cds-C4N14_03425;cds-C4N14_03415;cds-C4N14_03345;cds-C4N14_03065;cds-C4N14_03060;cds-C4N14_02995;cds-C4N14_01845;cds-C4N14_01950;cds-C4N14_02030;cds-C4N14_02045;cds-C4N14_02080;cds-C4N14_02205;cds-C4N14_02210;cds-C4N14_02215</t>
-  </si>
-  <si>
     <t>cds-C4N14_02395;cds-C4N14_05240;cds-C4N14_10080;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_09965;cds-C4N14_09785;cds-C4N14_08450;cds-C4N14_08330;cds-C4N14_07240;cds-C4N14_06380;cds-C4N14_10420;cds-C4N14_00585</t>
   </si>
   <si>
-    <t>cds-C4N14_09955;cds-C4N14_08295;cds-C4N14_10550;cds-C4N14_00210</t>
+    <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_02450;cds-C4N14_02565;cds-C4N14_02625;cds-C4N14_02635;cds-C4N14_02695;cds-C4N14_02740;cds-C4N14_02745;cds-C4N14_02770;cds-C4N14_02775;cds-C4N14_02780;cds-C4N14_02800;cds-C4N14_02805;cds-C4N14_01785;cds-C4N14_01780;cds-C4N14_04115;cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04130;cds-C4N14_04135;cds-C4N14_04160;cds-C4N14_04180;cds-C4N14_04250;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04460;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_04670;cds-C4N14_04695;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04795;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_04920;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05135;cds-C4N14_05140;cds-C4N14_05175;cds-C4N14_05180;cds-C4N14_05185;cds-C4N14_05190;cds-C4N14_05195;cds-C4N14_05200;cds-C4N14_05205;cds-C4N14_05210;cds-C4N14_05215;cds-C4N14_05220;cds-C4N14_05230;cds-C4N14_05240;cds-C4N14_05280;cds-C4N14_10125;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_10085;cds-C4N14_10080;cds-C4N14_10075;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10060;cds-C4N14_10055;cds-C4N14_10045;cds-C4N14_10040;cds-C4N14_10035;cds-C4N14_10005;cds-C4N14_09985;cds-C4N14_09965;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09835;cds-C4N14_09810;cds-C4N14_09805;cds-C4N14_09785;cds-C4N14_09770;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09725;cds-C4N14_09720;cds-C4N14_09685;cds-C4N14_09605;cds-C4N14_09555;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09520;cds-C4N14_09465;cds-C4N14_09430;cds-C4N14_09330;cds-C4N14_09265;cds-C4N14_09260;cds-C4N14_09255;cds-C4N14_09250;cds-C4N14_09245;cds-C4N14_09135;cds-C4N14_09115;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08930;cds-C4N14_08920;cds-C4N14_08830;cds-C4N14_08825;cds-C4N14_08805;cds-C4N14_08690;cds-C4N14_08670;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08520;cds-C4N14_08515;cds-C4N14_08450;cds-C4N14_08445;cds-C4N14_08440;cds-C4N14_08435;cds-C4N14_08430;cds-C4N14_08410;cds-C4N14_08400;cds-C4N14_08330;cds-C4N14_08295;cds-C4N14_08265;cds-C4N14_08260;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08225;cds-C4N14_08185;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07930;cds-C4N14_07925;cds-C4N14_07920;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07840;cds-C4N14_07815;cds-C4N14_07800;cds-C4N14_07790;cds-C4N14_07725;cds-C4N14_07660;cds-C4N14_07655;cds-C4N14_07620;cds-C4N14_07615;cds-C4N14_07610;cds-C4N14_07605;cds-C4N14_07595;cds-C4N14_07565;cds-C4N14_07560;cds-C4N14_07545;cds-C4N14_07525;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07470;cds-C4N14_07415;cds-C4N14_07410;cds-C4N14_07405;cds-C4N14_07380;cds-C4N14_07370;cds-C4N14_07355;cds-C4N14_07345;cds-C4N14_07340;cds-C4N14_07325;cds-C4N14_07315;cds-C4N14_07310;cds-C4N14_07300;cds-C4N14_07290;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_07220;cds-C4N14_07175;cds-C4N14_07170;cds-C4N14_07165;cds-C4N14_07115;cds-C4N14_07100;cds-C4N14_07095;cds-C4N14_07090;cds-C4N14_07070;cds-C4N14_07025;cds-C4N14_06915;cds-C4N14_06885;cds-C4N14_06875;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06535;cds-C4N14_06495;cds-C4N14_06485;cds-C4N14_06480;cds-C4N14_06430;cds-C4N14_06380;cds-C4N14_06365;cds-C4N14_06345;cds-C4N14_06320;cds-C4N14_06310;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06200;cds-C4N14_06120;cds-C4N14_06090;cds-C4N14_06075;cds-C4N14_06030;cds-C4N14_06010;cds-C4N14_06005;cds-C4N14_05980;cds-C4N14_05815;cds-C4N14_05800;cds-C4N14_05790;cds-C4N14_05745;cds-C4N14_05620;cds-C4N14_05615;cds-C4N14_05600;cds-C4N14_05580;cds-C4N14_05575;cds-C4N14_05485;cds-C4N14_05480;cds-C4N14_05475;cds-C4N14_05465;cds-C4N14_10135;cds-C4N14_10145;cds-C4N14_10260;cds-C4N14_10310;cds-C4N14_10420;cds-C4N14_10440;cds-C4N14_10455;cds-C4N14_10465;cds-C4N14_10470;cds-C4N14_10475;cds-C4N14_10485;cds-C4N14_10490;cds-C4N14_10495;cds-C4N14_10515;cds-C4N14_10525;cds-C4N14_10535;cds-C4N14_10630;cds-C4N14_10635;cds-C4N14_10640;cds-C4N14_10690;cds-C4N14_10695;cds-C4N14_10700;cds-C4N14_10705;cds-C4N14_10710;cds-C4N14_10715;cds-C4N14_10725;cds-C4N14_10735;cds-C4N14_10740;cds-C4N14_10800;cds-C4N14_10805;cds-C4N14_10835;cds-C4N14_10840;cds-C4N14_10860;cds-C4N14_10865;cds-C4N14_10870;cds-C4N14_10880;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00125;cds-C4N14_00210;cds-C4N14_00215;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00370;cds-C4N14_00375;cds-C4N14_00465;cds-C4N14_00585;cds-C4N14_00590;cds-C4N14_00595;cds-C4N14_00605;cds-C4N14_00670;cds-C4N14_00890;cds-C4N14_00950;cds-C4N14_01020;cds-C4N14_01040;cds-C4N14_01055;cds-C4N14_01065;cds-C4N14_01240;cds-C4N14_01245;cds-C4N14_01250;cds-C4N14_01260;cds-C4N14_01265;cds-C4N14_01270;cds-C4N14_01275;cds-C4N14_01280;cds-C4N14_01285;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01330;cds-C4N14_01335;cds-C4N14_01340;cds-C4N14_01345;cds-C4N14_01355;cds-C4N14_01360;cds-C4N14_01365;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01475;cds-C4N14_01500;cds-C4N14_01505;cds-C4N14_01515;cds-C4N14_01585;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860;cds-C4N14_03840;cds-C4N14_03815;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03755;cds-C4N14_03750;cds-C4N14_03735;cds-C4N14_03730;cds-C4N14_03725;cds-C4N14_03720;cds-C4N14_03680;cds-C4N14_03565;cds-C4N14_03545;cds-C4N14_03530;cds-C4N14_03490;cds-C4N14_03470;cds-C4N14_03425;cds-C4N14_03415;cds-C4N14_03345;cds-C4N14_03065;cds-C4N14_03060;cds-C4N14_02995;cds-C4N14_01845;cds-C4N14_01950;cds-C4N14_02030;cds-C4N14_02045;cds-C4N14_02080;cds-C4N14_02205;cds-C4N14_02210;cds-C4N14_02215</t>
   </si>
   <si>
     <t>cds-C4N14_02565;cds-C4N14_04180;cds-C4N14_04745;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05175;cds-C4N14_10105;cds-C4N14_10035;cds-C4N14_09115;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08330;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07565;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07095;cds-C4N14_06885;cds-C4N14_06625;cds-C4N14_06380;cds-C4N14_06030;cds-C4N14_10260;cds-C4N14_10485;cds-C4N14_10860;cds-C4N14_00375;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_03680;cds-C4N14_03060</t>
@@ -725,12 +764,6 @@
     <t>cds-C4N14_02370;cds-C4N14_02675;cds-C4N14_05250;cds-C4N14_09550;cds-C4N14_08725;cds-C4N14_08720;cds-C4N14_06785;cds-C4N14_05425;cds-C4N14_10405;cds-C4N14_00220;cds-C4N14_00225;cds-C4N14_00680;cds-C4N14_01180;cds-C4N14_01890</t>
   </si>
   <si>
-    <t>cds-C4N14_09785;cds-C4N14_06380;cds-C4N14_10420</t>
-  </si>
-  <si>
-    <t>cds-C4N14_02370;cds-C4N14_04340;cds-C4N14_04345;cds-C4N14_04350;cds-C4N14_04355;cds-C4N14_05365;cds-C4N14_05370;cds-C4N14_05375;cds-C4N14_05380;cds-C4N14_05385;cds-C4N14_09550;cds-C4N14_07840;cds-C4N14_07185;cds-C4N14_06785;cds-C4N14_06610;cds-C4N14_06605;cds-C4N14_06600;cds-C4N14_06595;cds-C4N14_06590;cds-C4N14_06535;cds-C4N14_05535;cds-C4N14_05425;cds-C4N14_10225;cds-C4N14_10230;cds-C4N14_10235;cds-C4N14_10240;cds-C4N14_10245;cds-C4N14_10405;cds-C4N14_10570;cds-C4N14_10575;cds-C4N14_10580;cds-C4N14_10585;cds-C4N14_10590;cds-C4N14_00060;cds-C4N14_00140;cds-C4N14_00145;cds-C4N14_00150;cds-C4N14_00155;cds-C4N14_00160;cds-C4N14_00680;cds-C4N14_00795;cds-C4N14_00800;cds-C4N14_00805;cds-C4N14_00810;cds-C4N14_00815;cds-C4N14_01180;cds-C4N14_01890</t>
-  </si>
-  <si>
     <t>cds-C4N14_05280;cds-C4N14_05800;cds-C4N14_05615;cds-C4N14_00890;cds-C4N14_00950;cds-C4N14_01020;cds-C4N14_03065;cds-C4N14_02215</t>
   </si>
   <si>
@@ -743,7 +776,7 @@
     <t>cds-C4N14_02535;cds-C4N14_02605;cds-C4N14_02670;cds-C4N14_02680;cds-C4N14_02690;cds-C4N14_01745;cds-C4N14_04830;cds-C4N14_04835;cds-C4N14_05315;cds-C4N14_10130;cds-C4N14_09895;cds-C4N14_09700;cds-C4N14_09595;cds-C4N14_09180;cds-C4N14_08735;cds-C4N14_08440;cds-C4N14_08435;cds-C4N14_08430;cds-C4N14_05790;cds-C4N14_10135;cds-C4N14_10870;cds-C4N14_00110;cds-C4N14_00460;cds-C4N14_00850;cds-C4N14_02935;cds-C4N14_02310;cds-C4N14_02315</t>
   </si>
   <si>
-    <t>cds-C4N14_02450;cds-C4N14_02565;cds-C4N14_04115;cds-C4N14_04125;cds-C4N14_04130;cds-C4N14_04180;cds-C4N14_04295;cds-C4N14_04795;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05135;cds-C4N14_05175;cds-C4N14_05240;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_10035;cds-C4N14_10005;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09835;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09725;cds-C4N14_09555;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09430;cds-C4N14_09115;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08690;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08450;cds-C4N14_08330;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08225;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07640;cds-C4N14_07565;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_07220;cds-C4N14_06885;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06380;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06090;cds-C4N14_06030;cds-C4N14_05980;cds-C4N14_05800;cds-C4N14_05620;cds-C4N14_05615;cds-C4N14_05575;cds-C4N14_05480;cds-C4N14_05475;cds-C4N14_05470;cds-C4N14_05465;cds-C4N14_10135;cds-C4N14_10260;cds-C4N14_10485;cds-C4N14_10535;cds-C4N14_10550;cds-C4N14_10740;cds-C4N14_10860;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00210;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00375;cds-C4N14_00465;cds-C4N14_00485;cds-C4N14_00890;cds-C4N14_01020;cds-C4N14_01055;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01475;cds-C4N14_01505;cds-C4N14_03680;cds-C4N14_03490;cds-C4N14_03060;cds-C4N14_01950</t>
+    <t>cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_08295;cds-C4N14_00210</t>
   </si>
   <si>
     <t>cds-C4N14_02805;cds-C4N14_09925;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_07620;cds-C4N14_07615;cds-C4N14_07610;cds-C4N14_07605;cds-C4N14_07415;cds-C4N14_07410;cds-C4N14_07405;cds-C4N14_07380;cds-C4N14_07370;cds-C4N14_07355;cds-C4N14_07345;cds-C4N14_07340;cds-C4N14_07325;cds-C4N14_07315;cds-C4N14_07310;cds-C4N14_07300;cds-C4N14_07290;cds-C4N14_05815;cds-C4N14_05600;cds-C4N14_10135;cds-C4N14_01515;cds-C4N14_02030</t>
@@ -761,12 +794,12 @@
     <t>cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_03345</t>
   </si>
   <si>
+    <t>cds-C4N14_02370;cds-C4N14_04340;cds-C4N14_04345;cds-C4N14_04350;cds-C4N14_04355;cds-C4N14_05365;cds-C4N14_05370;cds-C4N14_05375;cds-C4N14_05380;cds-C4N14_05385;cds-C4N14_09550;cds-C4N14_07840;cds-C4N14_07185;cds-C4N14_06785;cds-C4N14_06610;cds-C4N14_06605;cds-C4N14_06600;cds-C4N14_06595;cds-C4N14_06590;cds-C4N14_06535;cds-C4N14_05535;cds-C4N14_05425;cds-C4N14_10225;cds-C4N14_10230;cds-C4N14_10235;cds-C4N14_10240;cds-C4N14_10405;cds-C4N14_10570;cds-C4N14_10575;cds-C4N14_10580;cds-C4N14_10585;cds-C4N14_10590;cds-C4N14_00060;cds-C4N14_00140;cds-C4N14_00145;cds-C4N14_00150;cds-C4N14_00155;cds-C4N14_00160;cds-C4N14_00680;cds-C4N14_00795;cds-C4N14_00800;cds-C4N14_00805;cds-C4N14_00810;cds-C4N14_00815;cds-C4N14_01180;cds-C4N14_01890</t>
+  </si>
+  <si>
     <t>cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_05010;cds-C4N14_10105;cds-C4N14_09430;cds-C4N14_08825;cds-C4N14_08230;cds-C4N14_06345;cds-C4N14_03680;cds-C4N14_03060;cds-C4N14_01950</t>
   </si>
   <si>
-    <t>cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_08295;cds-C4N14_10550;cds-C4N14_00210</t>
-  </si>
-  <si>
     <t>cds-C4N14_04180;cds-C4N14_09115;cds-C4N14_06305;cds-C4N14_05790;cds-C4N14_10525;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_03100</t>
   </si>
   <si>
@@ -788,6 +821,9 @@
     <t>cds-C4N14_05715;cds-C4N14_01840;cds-C4N14_01855;cds-C4N14_01860</t>
   </si>
   <si>
+    <t>cds-C4N14_02450;cds-C4N14_02565;cds-C4N14_04115;cds-C4N14_04125;cds-C4N14_04130;cds-C4N14_04180;cds-C4N14_04295;cds-C4N14_04795;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05135;cds-C4N14_05175;cds-C4N14_05240;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10035;cds-C4N14_10005;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09835;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09725;cds-C4N14_09555;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09430;cds-C4N14_09115;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08690;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08450;cds-C4N14_08330;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08225;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07640;cds-C4N14_07565;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_07220;cds-C4N14_06885;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06380;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06090;cds-C4N14_06030;cds-C4N14_05980;cds-C4N14_05800;cds-C4N14_05620;cds-C4N14_05615;cds-C4N14_05575;cds-C4N14_05480;cds-C4N14_05475;cds-C4N14_05470;cds-C4N14_05465;cds-C4N14_10135;cds-C4N14_10145;cds-C4N14_10260;cds-C4N14_10420;cds-C4N14_10485;cds-C4N14_10535;cds-C4N14_10740;cds-C4N14_10860;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00210;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00375;cds-C4N14_00465;cds-C4N14_00485;cds-C4N14_00890;cds-C4N14_01020;cds-C4N14_01055;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01475;cds-C4N14_01505;cds-C4N14_03680;cds-C4N14_03490;cds-C4N14_03060;cds-C4N14_01950</t>
+  </si>
+  <si>
     <t>cds-C4N14_09985;cds-C4N14_07790;cds-C4N14_07470;cds-C4N14_05745;cds-C4N14_10475;cds-C4N14_01585;cds-C4N14_03545;cds-C4N14_02995</t>
   </si>
   <si>
@@ -803,52 +839,61 @@
     <t>cds-C4N14_05905;cds-C4N14_01035</t>
   </si>
   <si>
-    <t>cds-C4N14_02800;cds-C4N14_04375;cds-C4N14_04380;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04670;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_05010;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09785;cds-C4N14_09750;cds-C4N14_09685;cds-C4N14_09540;cds-C4N14_09430;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08155;cds-C4N14_07565;cds-C4N14_07115;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06885;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06030;cds-C4N14_10135;cds-C4N14_10260;cds-C4N14_10515;cds-C4N14_10535;cds-C4N14_10550;cds-C4N14_10635;cds-C4N14_10865;cds-C4N14_10880;cds-C4N14_00210;cds-C4N14_01055;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03680;cds-C4N14_03060;cds-C4N14_01950;cds-C4N14_02080</t>
+    <t>cds-C4N14_04330;cds-C4N14_04490;cds-C4N14_04495;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04990;cds-C4N14_04995;cds-C4N14_09750;cds-C4N14_05830;cds-C4N14_05825;cds-C4N14_10315;cds-C4N14_10320;cds-C4N14_10325;cds-C4N14_10330;cds-C4N14_10420;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03775;cds-C4N14_02185;cds-C4N14_02190;cds-C4N14_02195</t>
+  </si>
+  <si>
+    <t>cds-C4N14_02800;cds-C4N14_04375;cds-C4N14_04380;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04670;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_05010;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09785;cds-C4N14_09750;cds-C4N14_09685;cds-C4N14_09540;cds-C4N14_09430;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08155;cds-C4N14_07565;cds-C4N14_07115;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06885;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06030;cds-C4N14_10135;cds-C4N14_10260;cds-C4N14_10515;cds-C4N14_10535;cds-C4N14_10635;cds-C4N14_10865;cds-C4N14_10880;cds-C4N14_00210;cds-C4N14_01055;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03680;cds-C4N14_03060;cds-C4N14_01950;cds-C4N14_02080</t>
+  </si>
+  <si>
+    <t>cds-C4N14_02800;cds-C4N14_04375;cds-C4N14_04380;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04670;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_09750;cds-C4N14_09135;cds-C4N14_08295;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06270;cds-C4N14_10535;cds-C4N14_00210;cds-C4N14_03785;cds-C4N14_03780</t>
   </si>
   <si>
     <t>cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03755;cds-C4N14_03750;cds-C4N14_03735;cds-C4N14_03730;cds-C4N14_03725;cds-C4N14_03720</t>
   </si>
   <si>
-    <t>cds-C4N14_02800;cds-C4N14_04375;cds-C4N14_04380;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04670;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_09750;cds-C4N14_09135;cds-C4N14_08295;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06270;cds-C4N14_10535;cds-C4N14_10550;cds-C4N14_00210;cds-C4N14_03785;cds-C4N14_03780</t>
-  </si>
-  <si>
     <t>cds-C4N14_01800;cds-C4N14_05185;cds-C4N14_05190;cds-C4N14_05195;cds-C4N14_05200;cds-C4N14_05205;cds-C4N14_05210;cds-C4N14_05215;cds-C4N14_05220;cds-C4N14_01245;cds-C4N14_01250;cds-C4N14_01260;cds-C4N14_01265;cds-C4N14_01270;cds-C4N14_01275;cds-C4N14_01280;cds-C4N14_01285;cds-C4N14_03945</t>
   </si>
   <si>
+    <t>cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_08295;cds-C4N14_07840;cds-C4N14_06535;cds-C4N14_00210</t>
+  </si>
+  <si>
     <t>cds-C4N14_10125;cds-C4N14_09770;cds-C4N14_10690;cds-C4N14_10705;cds-C4N14_10715;cds-C4N14_10725</t>
   </si>
   <si>
     <t>cds-C4N14_04160;cds-C4N14_09955;cds-C4N14_08670;cds-C4N14_08400;cds-C4N14_10145;cds-C4N14_03415</t>
   </si>
   <si>
-    <t>cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_08295;cds-C4N14_07840;cds-C4N14_06535;cds-C4N14_10550;cds-C4N14_00210</t>
-  </si>
-  <si>
     <t>cds-C4N14_05010;cds-C4N14_10105;cds-C4N14_09955;cds-C4N14_09430;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_07595;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_10260;cds-C4N14_10535;cds-C4N14_01055;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01950</t>
   </si>
   <si>
+    <t>cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_09750;cds-C4N14_08525;cds-C4N14_08240;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_10535;cds-C4N14_10865;cds-C4N14_02080</t>
+  </si>
+  <si>
     <t>cds-C4N14_02800;cds-C4N14_04385;cds-C4N14_04670;cds-C4N14_05180;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_09685;cds-C4N14_08240;cds-C4N14_06915;cds-C4N14_06555;cds-C4N14_06310;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_10310;cds-C4N14_10535;cds-C4N14_00215;cds-C4N14_01395</t>
   </si>
   <si>
     <t>cds-C4N14_09785;cds-C4N14_07790;cds-C4N14_07470;cds-C4N14_06265;cds-C4N14_06260</t>
   </si>
   <si>
+    <t>cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_05010;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_09750;cds-C4N14_09135;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06885;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06030;cds-C4N14_10260;cds-C4N14_10485;cds-C4N14_10535;cds-C4N14_10865;cds-C4N14_00210;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03680;cds-C4N14_03060;cds-C4N14_01950;cds-C4N14_02080</t>
+  </si>
+  <si>
     <t>cds-C4N14_09430;cds-C4N14_08225;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07595;cds-C4N14_06300;cds-C4N14_05800;cds-C4N14_01950</t>
   </si>
   <si>
-    <t>cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_05010;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_09750;cds-C4N14_09135;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06885;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06030;cds-C4N14_10260;cds-C4N14_10485;cds-C4N14_10535;cds-C4N14_10550;cds-C4N14_10865;cds-C4N14_00210;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03680;cds-C4N14_03060;cds-C4N14_01950;cds-C4N14_02080</t>
-  </si>
-  <si>
     <t>cds-C4N14_02770;cds-C4N14_02775;cds-C4N14_02780;cds-C4N14_04295;cds-C4N14_05135;cds-C4N14_09555;cds-C4N14_07640;cds-C4N14_07560;cds-C4N14_07220;cds-C4N14_05580;cds-C4N14_05575;cds-C4N14_05475;cds-C4N14_01065;cds-C4N14_03615;cds-C4N14_03535;cds-C4N14_03425</t>
   </si>
   <si>
     <t>cds-C4N14_04460;cds-C4N14_09720;cds-C4N14_09520;cds-C4N14_09265;cds-C4N14_09255;cds-C4N14_09250;cds-C4N14_09245;cds-C4N14_08185;cds-C4N14_07655;cds-C4N14_07525;cds-C4N14_07090;cds-C4N14_06495;cds-C4N14_06010;cds-C4N14_00590;cds-C4N14_01040;cds-C4N14_01500;cds-C4N14_03530</t>
   </si>
   <si>
-    <t>cds-C4N14_04670;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_08295;cds-C4N14_06275;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_10550;cds-C4N14_00210</t>
-  </si>
-  <si>
-    <t>cds-C4N14_04325;cds-C4N14_04330;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04990;cds-C4N14_04995;cds-C4N14_09750;cds-C4N14_05830;cds-C4N14_05825;cds-C4N14_10315;cds-C4N14_10320;cds-C4N14_10325;cds-C4N14_10330;cds-C4N14_10420;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03775;cds-C4N14_02185;cds-C4N14_02190;cds-C4N14_02195</t>
+    <t>cds-C4N14_04670;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_08295;cds-C4N14_06275;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_00210</t>
+  </si>
+  <si>
+    <t>cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_09785;cds-C4N14_06380;cds-C4N14_10420</t>
+  </si>
+  <si>
+    <t>cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_05010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_10260;cds-C4N14_03680</t>
   </si>
 </sst>
 </file>
@@ -931,28 +976,28 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>20.0</v>
+        <v>4.0</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02121982385178216</v>
+        <v>0.007971432433045786</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.7572860811393496</v>
       </c>
       <c r="F2" t="n">
-        <v>0.22781315940346702</v>
+        <v>0.3965646294078409</v>
       </c>
       <c r="G2" t="n">
         <v>1.0</v>
       </c>
       <c r="H2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I2" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3">
@@ -960,28 +1005,28 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0312887416331799</v>
+        <v>0.02121982385178216</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F3" t="n">
-        <v>0.027191812637986142</v>
+        <v>0.22781315940346702</v>
       </c>
       <c r="G3" t="n">
         <v>1.0</v>
       </c>
       <c r="H3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
@@ -989,28 +1034,28 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>91.0</v>
+        <v>23.0</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08505027025830235</v>
+        <v>0.0312887416331799</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5991987364413565</v>
+        <v>0.027191812637986142</v>
       </c>
       <c r="G4" t="n">
         <v>1.0</v>
       </c>
       <c r="H4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I4" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5">
@@ -1018,28 +1063,28 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>2.0</v>
+        <v>91.0</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D5" t="n">
-        <v>0.14557169620632124</v>
+        <v>0.08505027025830235</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F5" t="n">
-        <v>1.0</v>
+        <v>0.5991987364413565</v>
       </c>
       <c r="G5" t="n">
         <v>1.0</v>
       </c>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="I5" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6">
@@ -1047,28 +1092,28 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D6" t="n">
-        <v>0.17886760129240248</v>
+        <v>0.14557169620632124</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7924171502939525</v>
+        <v>1.0</v>
       </c>
       <c r="G6" t="n">
         <v>1.0</v>
       </c>
       <c r="H6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="I6" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7">
@@ -1076,28 +1121,28 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D7" t="n">
-        <v>0.18172395433380684</v>
+        <v>0.17886760129240248</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F7" t="n">
-        <v>1.0</v>
+        <v>0.7924171502939525</v>
       </c>
       <c r="G7" t="n">
         <v>1.0</v>
       </c>
       <c r="H7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8">
@@ -1105,28 +1150,28 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1913081135971352</v>
+        <v>0.18172395433380684</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F8" t="n">
-        <v>0.33011435863968946</v>
+        <v>1.0</v>
       </c>
       <c r="G8" t="n">
         <v>1.0</v>
       </c>
       <c r="H8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I8" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9">
@@ -1134,28 +1179,28 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1972235635293834</v>
+        <v>0.21007858196419105</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F9" t="n">
-        <v>1.0</v>
+        <v>0.09287668233162578</v>
       </c>
       <c r="G9" t="n">
         <v>1.0</v>
       </c>
       <c r="H9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I9" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10">
@@ -1163,28 +1208,28 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1974924053686294</v>
+        <v>0.22735398248170785</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09294355021510725</v>
+        <v>0.7941819656609576</v>
       </c>
       <c r="G10" t="n">
         <v>1.0</v>
       </c>
       <c r="H10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="I10" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11">
@@ -1192,28 +1237,28 @@
         <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D11" t="n">
-        <v>0.22735398248170785</v>
+        <v>0.22804375507198335</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7941819656609576</v>
+        <v>0.7460512121486422</v>
       </c>
       <c r="G11" t="n">
         <v>1.0</v>
       </c>
       <c r="H11" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I11" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12">
@@ -1221,28 +1266,28 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D12" t="n">
-        <v>0.22804375507198335</v>
+        <v>0.24603173001271383</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7460512121486422</v>
+        <v>0.8885911162197586</v>
       </c>
       <c r="G12" t="n">
         <v>1.0</v>
       </c>
       <c r="H12" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I12" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13">
@@ -1250,28 +1295,28 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D13" t="n">
-        <v>0.24603173001271383</v>
+        <v>0.264952151906961</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8885911162197586</v>
+        <v>1.0</v>
       </c>
       <c r="G13" t="n">
         <v>1.0</v>
       </c>
       <c r="H13" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I13" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14">
@@ -1282,13 +1327,13 @@
         <v>123.0</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D14" t="n">
         <v>0.26929002904339605</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F14" t="n">
         <v>0.061305512135186285</v>
@@ -1300,7 +1345,7 @@
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15">
@@ -1308,28 +1353,28 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3233184120987199</v>
+        <v>0.27636215159498956</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F15" t="n">
-        <v>0.919897167793293</v>
+        <v>0.9621471602143538</v>
       </c>
       <c r="G15" t="n">
         <v>1.0</v>
       </c>
       <c r="H15" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I15" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16">
@@ -1337,28 +1382,28 @@
         <v>22</v>
       </c>
       <c r="B16" t="n">
-        <v>3.0</v>
+        <v>55.0</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D16" t="n">
-        <v>0.32489997768365353</v>
+        <v>0.2813769011641518</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F16" t="n">
-        <v>1.0</v>
+        <v>0.465845771045323</v>
       </c>
       <c r="G16" t="n">
         <v>1.0</v>
       </c>
       <c r="H16" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I16" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17">
@@ -1366,28 +1411,28 @@
         <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3303577041760246</v>
+        <v>0.3042247958934825</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F17" t="n">
-        <v>0.903412848975039</v>
+        <v>0.508477997768469</v>
       </c>
       <c r="G17" t="n">
         <v>1.0</v>
       </c>
       <c r="H17" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I17" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18">
@@ -1395,28 +1440,28 @@
         <v>24</v>
       </c>
       <c r="B18" t="n">
-        <v>54.0</v>
+        <v>12.0</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D18" t="n">
-        <v>0.33343687432523805</v>
+        <v>0.3233184120987199</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4455257226271529</v>
+        <v>0.919897167793293</v>
       </c>
       <c r="G18" t="n">
         <v>1.0</v>
       </c>
       <c r="H18" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I18" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19">
@@ -1424,28 +1469,28 @@
         <v>25</v>
       </c>
       <c r="B19" t="n">
-        <v>29.0</v>
+        <v>3.0</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3365963720301426</v>
+        <v>0.32489997768365353</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F19" t="n">
-        <v>0.44393809915064675</v>
+        <v>1.0</v>
       </c>
       <c r="G19" t="n">
         <v>1.0</v>
       </c>
       <c r="H19" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I19" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
@@ -1456,13 +1501,13 @@
         <v>2.0</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D20" t="n">
-        <v>0.34076157471804314</v>
+        <v>0.3260033114220775</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F20" t="n">
         <v>1.0</v>
@@ -1471,10 +1516,10 @@
         <v>1.0</v>
       </c>
       <c r="H20" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I20" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21">
@@ -1482,28 +1527,28 @@
         <v>27</v>
       </c>
       <c r="B21" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3654509209493363</v>
+        <v>0.3303577041760246</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6678714111821729</v>
+        <v>0.903412848975039</v>
       </c>
       <c r="G21" t="n">
         <v>1.0</v>
       </c>
       <c r="H21" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I21" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22">
@@ -1511,28 +1556,28 @@
         <v>28</v>
       </c>
       <c r="B22" t="n">
-        <v>50.0</v>
+        <v>29.0</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D22" t="n">
-        <v>0.37699024118983937</v>
+        <v>0.3365963720301426</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6071987945749354</v>
+        <v>0.44393809915064675</v>
       </c>
       <c r="G22" t="n">
         <v>1.0</v>
       </c>
       <c r="H22" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
@@ -1540,28 +1585,28 @@
         <v>29</v>
       </c>
       <c r="B23" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3892678732054957</v>
+        <v>0.3654509209493363</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4763694314317195</v>
+        <v>0.6678714111821729</v>
       </c>
       <c r="G23" t="n">
         <v>1.0</v>
       </c>
       <c r="H23" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I23" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24">
@@ -1569,28 +1614,28 @@
         <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>11.0</v>
+        <v>50.0</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3983707704342443</v>
+        <v>0.37699024118983937</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5775927429996259</v>
+        <v>0.6071987945749354</v>
       </c>
       <c r="G24" t="n">
         <v>1.0</v>
       </c>
       <c r="H24" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I24" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
@@ -1598,28 +1643,28 @@
         <v>31</v>
       </c>
       <c r="B25" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D25" t="n">
-        <v>0.40181534205998815</v>
+        <v>0.3892678732054957</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3626283516842808</v>
+        <v>0.4763694314317195</v>
       </c>
       <c r="G25" t="n">
         <v>1.0</v>
       </c>
       <c r="H25" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I25" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26">
@@ -1627,28 +1672,28 @@
         <v>32</v>
       </c>
       <c r="B26" t="n">
-        <v>19.0</v>
+        <v>5.0</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D26" t="n">
-        <v>0.41520858104964675</v>
+        <v>0.3924005296799433</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7280612455042306</v>
+        <v>0.9870878126997162</v>
       </c>
       <c r="G26" t="n">
         <v>1.0</v>
       </c>
       <c r="H26" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I26" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27">
@@ -1656,28 +1701,28 @@
         <v>33</v>
       </c>
       <c r="B27" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4231922576007796</v>
+        <v>0.3983707704342443</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7273145676778325</v>
+        <v>0.5775927429996259</v>
       </c>
       <c r="G27" t="n">
         <v>1.0</v>
       </c>
       <c r="H27" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I27" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28">
@@ -1685,28 +1730,28 @@
         <v>34</v>
       </c>
       <c r="B28" t="n">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D28" t="n">
-        <v>0.42921284386351233</v>
+        <v>0.40181534205998815</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F28" t="n">
-        <v>1.0</v>
+        <v>0.3626283516842808</v>
       </c>
       <c r="G28" t="n">
         <v>1.0</v>
       </c>
       <c r="H28" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="I28" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29">
@@ -1714,28 +1759,28 @@
         <v>35</v>
       </c>
       <c r="B29" t="n">
-        <v>9.0</v>
+        <v>19.0</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D29" t="n">
-        <v>0.43279130913929564</v>
+        <v>0.41520858104964675</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8064549036802674</v>
+        <v>0.7280612455042306</v>
       </c>
       <c r="G29" t="n">
         <v>1.0</v>
       </c>
       <c r="H29" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="I29" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30">
@@ -1743,28 +1788,28 @@
         <v>36</v>
       </c>
       <c r="B30" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4412097493848476</v>
+        <v>0.4231922576007796</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5369267333998893</v>
+        <v>0.7273145676778325</v>
       </c>
       <c r="G30" t="n">
         <v>1.0</v>
       </c>
       <c r="H30" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I30" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31">
@@ -1772,28 +1817,28 @@
         <v>37</v>
       </c>
       <c r="B31" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D31" t="n">
-        <v>0.46116171799930905</v>
+        <v>0.42921284386351233</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8706136779671783</v>
+        <v>1.0</v>
       </c>
       <c r="G31" t="n">
         <v>1.0</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I31" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32">
@@ -1801,28 +1846,28 @@
         <v>38</v>
       </c>
       <c r="B32" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5171034420780682</v>
+        <v>0.43279130913929564</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F32" t="n">
-        <v>0.781984778448393</v>
+        <v>0.8064549036802674</v>
       </c>
       <c r="G32" t="n">
         <v>1.0</v>
       </c>
       <c r="H32" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I32" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33">
@@ -1830,28 +1875,28 @@
         <v>39</v>
       </c>
       <c r="B33" t="n">
-        <v>4.0</v>
+        <v>16.0</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5419684810609132</v>
+        <v>0.4412097493848476</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F33" t="n">
-        <v>1.0</v>
+        <v>0.5369267333998893</v>
       </c>
       <c r="G33" t="n">
         <v>1.0</v>
       </c>
       <c r="H33" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I33" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34">
@@ -1859,28 +1904,28 @@
         <v>40</v>
       </c>
       <c r="B34" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5448136894439932</v>
+        <v>0.46116171799930905</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F34" t="n">
-        <v>1.0</v>
+        <v>0.8706136779671783</v>
       </c>
       <c r="G34" t="n">
         <v>1.0</v>
       </c>
       <c r="H34" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I34" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35">
@@ -1888,28 +1933,28 @@
         <v>41</v>
       </c>
       <c r="B35" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5523589678588878</v>
+        <v>0.5066778271390562</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F35" t="n">
-        <v>1.0</v>
+        <v>0.9167500897604901</v>
       </c>
       <c r="G35" t="n">
         <v>1.0</v>
       </c>
       <c r="H35" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I35" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36">
@@ -1917,28 +1962,28 @@
         <v>42</v>
       </c>
       <c r="B36" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5534072824344696</v>
+        <v>0.5171034420780682</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7695544060105822</v>
+        <v>0.781984778448393</v>
       </c>
       <c r="G36" t="n">
         <v>1.0</v>
       </c>
       <c r="H36" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I36" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37">
@@ -1946,28 +1991,28 @@
         <v>43</v>
       </c>
       <c r="B37" t="n">
-        <v>22.0</v>
+        <v>3.0</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5550144597369286</v>
+        <v>0.5448136894439932</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7521287248408972</v>
+        <v>1.0</v>
       </c>
       <c r="G37" t="n">
         <v>1.0</v>
       </c>
       <c r="H37" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I37" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38">
@@ -1975,16 +2020,16 @@
         <v>44</v>
       </c>
       <c r="B38" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6114296067334367</v>
+        <v>0.5523589678588878</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F38" t="n">
         <v>1.0</v>
@@ -1993,10 +2038,10 @@
         <v>1.0</v>
       </c>
       <c r="H38" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I38" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39">
@@ -2004,28 +2049,28 @@
         <v>45</v>
       </c>
       <c r="B39" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6205182243228197</v>
+        <v>0.5534072824344696</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F39" t="n">
-        <v>1.0</v>
+        <v>0.7695544060105822</v>
       </c>
       <c r="G39" t="n">
         <v>1.0</v>
       </c>
       <c r="H39" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="I39" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40">
@@ -2033,28 +2078,28 @@
         <v>46</v>
       </c>
       <c r="B40" t="n">
-        <v>6.0</v>
+        <v>22.0</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6302887595435434</v>
+        <v>0.5550144597369286</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9921727341218748</v>
+        <v>0.7521287248408972</v>
       </c>
       <c r="G40" t="n">
         <v>1.0</v>
       </c>
       <c r="H40" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="I40" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41">
@@ -2062,16 +2107,16 @@
         <v>47</v>
       </c>
       <c r="B41" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6332771207218955</v>
+        <v>0.5980392037228529</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F41" t="n">
         <v>1.0</v>
@@ -2080,10 +2125,10 @@
         <v>1.0</v>
       </c>
       <c r="H41" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="I41" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42">
@@ -2091,28 +2136,28 @@
         <v>48</v>
       </c>
       <c r="B42" t="n">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6418637816425272</v>
+        <v>0.6114296067334367</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F42" t="n">
-        <v>0.6183075328013538</v>
+        <v>1.0</v>
       </c>
       <c r="G42" t="n">
         <v>1.0</v>
       </c>
       <c r="H42" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I42" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43">
@@ -2120,28 +2165,28 @@
         <v>49</v>
       </c>
       <c r="B43" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6432444132763437</v>
+        <v>0.6205182243228197</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6726569631832813</v>
+        <v>1.0</v>
       </c>
       <c r="G43" t="n">
         <v>1.0</v>
       </c>
       <c r="H43" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I43" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44">
@@ -2149,28 +2194,28 @@
         <v>50</v>
       </c>
       <c r="B44" t="n">
-        <v>359.0</v>
+        <v>6.0</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6442289307380726</v>
+        <v>0.6302887595435434</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F44" t="n">
-        <v>0.6174727967354656</v>
+        <v>0.9921727341218748</v>
       </c>
       <c r="G44" t="n">
         <v>1.0</v>
       </c>
       <c r="H44" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="I44" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45">
@@ -2178,28 +2223,28 @@
         <v>51</v>
       </c>
       <c r="B45" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6501077432929538</v>
+        <v>0.6318136759709689</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F45" t="n">
-        <v>0.7259738897690644</v>
+        <v>0.5874397849115895</v>
       </c>
       <c r="G45" t="n">
         <v>1.0</v>
       </c>
       <c r="H45" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I45" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46">
@@ -2210,13 +2255,13 @@
         <v>4.0</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D46" t="n">
-        <v>0.663328821250482</v>
+        <v>0.6332771207218955</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F46" t="n">
         <v>1.0</v>
@@ -2225,10 +2270,10 @@
         <v>1.0</v>
       </c>
       <c r="H46" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I46" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47">
@@ -2236,28 +2281,28 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>37.0</v>
+        <v>10.0</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6764754346845254</v>
+        <v>0.6432444132763437</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F47" t="n">
-        <v>0.594063053837655</v>
+        <v>0.6726569631832813</v>
       </c>
       <c r="G47" t="n">
         <v>1.0</v>
       </c>
       <c r="H47" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I47" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48">
@@ -2265,28 +2310,28 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>21.0</v>
+        <v>13.0</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6800769076018288</v>
+        <v>0.6501077432929538</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F48" t="n">
-        <v>0.11171120483919499</v>
+        <v>0.7259738897690644</v>
       </c>
       <c r="G48" t="n">
         <v>1.0</v>
       </c>
       <c r="H48" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I48" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49">
@@ -2294,28 +2339,28 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>14.0</v>
+        <v>356.0</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6840918143212065</v>
+        <v>0.6713786267261836</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7907999993879392</v>
+        <v>0.6283105023053193</v>
       </c>
       <c r="G49" t="n">
         <v>1.0</v>
       </c>
       <c r="H49" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I49" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50">
@@ -2323,28 +2368,28 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>3.0</v>
+        <v>37.0</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6871674729202222</v>
+        <v>0.6764754346845254</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F50" t="n">
-        <v>1.0</v>
+        <v>0.594063053837655</v>
       </c>
       <c r="G50" t="n">
         <v>1.0</v>
       </c>
       <c r="H50" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I50" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51">
@@ -2352,28 +2397,28 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>47.0</v>
+        <v>21.0</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7031243729825294</v>
+        <v>0.6800769076018288</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8406590264087753</v>
+        <v>0.11171120483919499</v>
       </c>
       <c r="G51" t="n">
         <v>1.0</v>
       </c>
       <c r="H51" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I51" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52">
@@ -2381,28 +2426,28 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7196449225325898</v>
+        <v>0.6840918143212065</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F52" t="n">
-        <v>0.964169400303827</v>
+        <v>0.7907999993879392</v>
       </c>
       <c r="G52" t="n">
         <v>1.0</v>
       </c>
       <c r="H52" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I52" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53">
@@ -2410,28 +2455,28 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7236167849195497</v>
+        <v>0.7196449225325898</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5577925130363812</v>
+        <v>0.964169400303827</v>
       </c>
       <c r="G53" t="n">
         <v>1.0</v>
       </c>
       <c r="H53" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I53" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54">
@@ -2439,28 +2484,28 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7353896470761654</v>
+        <v>0.7236167849195497</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5479602722877106</v>
+        <v>0.5577925130363812</v>
       </c>
       <c r="G54" t="n">
         <v>1.0</v>
       </c>
       <c r="H54" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I54" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55">
@@ -2468,28 +2513,28 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>27.0</v>
+        <v>15.0</v>
       </c>
       <c r="C55" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7392152580030928</v>
+        <v>0.7353896470761654</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8065921304961108</v>
+        <v>0.5479602722877106</v>
       </c>
       <c r="G55" t="n">
         <v>1.0</v>
       </c>
       <c r="H55" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="I55" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56">
@@ -2497,28 +2542,28 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>116.0</v>
+        <v>27.0</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7424056751673427</v>
+        <v>0.7392152580030928</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F56" t="n">
-        <v>0.621355351975437</v>
+        <v>0.8065921304961108</v>
       </c>
       <c r="G56" t="n">
         <v>1.0</v>
       </c>
       <c r="H56" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I56" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57">
@@ -2526,28 +2571,28 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>29.0</v>
+        <v>4.0</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7593447717214485</v>
+        <v>0.748429928491539</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7592877911187127</v>
+        <v>1.0</v>
       </c>
       <c r="G57" t="n">
         <v>1.0</v>
       </c>
       <c r="H57" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I57" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58">
@@ -2555,28 +2600,28 @@
         <v>64</v>
       </c>
       <c r="B58" t="n">
-        <v>9.0</v>
+        <v>29.0</v>
       </c>
       <c r="C58" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7602190917678247</v>
+        <v>0.7593447717214485</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F58" t="n">
-        <v>0.5366540631163408</v>
+        <v>0.7592877911187127</v>
       </c>
       <c r="G58" t="n">
         <v>1.0</v>
       </c>
       <c r="H58" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I58" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59">
@@ -2584,28 +2629,28 @@
         <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7606066815774918</v>
+        <v>0.7602190917678247</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F59" t="n">
-        <v>1.0</v>
+        <v>0.5366540631163408</v>
       </c>
       <c r="G59" t="n">
         <v>1.0</v>
       </c>
       <c r="H59" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I59" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60">
@@ -2616,13 +2661,13 @@
         <v>3.0</v>
       </c>
       <c r="C60" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7650523249167599</v>
+        <v>0.7606066815774918</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F60" t="n">
         <v>1.0</v>
@@ -2631,10 +2676,10 @@
         <v>1.0</v>
       </c>
       <c r="H60" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I60" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61">
@@ -2645,13 +2690,13 @@
         <v>3.0</v>
       </c>
       <c r="C61" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D61" t="n">
-        <v>0.76577300033727</v>
+        <v>0.7650523249167599</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F61" t="n">
         <v>1.0</v>
@@ -2660,10 +2705,10 @@
         <v>1.0</v>
       </c>
       <c r="H61" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="I61" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62">
@@ -2671,28 +2716,28 @@
         <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="C62" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D62" t="n">
-        <v>0.7703545090362008</v>
+        <v>0.76577300033727</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5534418959280352</v>
+        <v>1.0</v>
       </c>
       <c r="G62" t="n">
         <v>1.0</v>
       </c>
       <c r="H62" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I62" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63">
@@ -2700,28 +2745,28 @@
         <v>69</v>
       </c>
       <c r="B63" t="n">
-        <v>5.0</v>
+        <v>46.0</v>
       </c>
       <c r="C63" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D63" t="n">
-        <v>0.7724523149851414</v>
+        <v>0.7672348592351346</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F63" t="n">
-        <v>1.0</v>
+        <v>0.834744095455813</v>
       </c>
       <c r="G63" t="n">
         <v>1.0</v>
       </c>
       <c r="H63" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="I63" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64">
@@ -2729,28 +2774,28 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="C64" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7743810168502392</v>
+        <v>0.7703545090362008</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F64" t="n">
-        <v>0.8387161007400938</v>
+        <v>0.5534418959280352</v>
       </c>
       <c r="G64" t="n">
         <v>1.0</v>
       </c>
       <c r="H64" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="I64" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65">
@@ -2758,28 +2803,28 @@
         <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C65" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7754868617620505</v>
+        <v>0.7743810168502392</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F65" t="n">
-        <v>0.5780076960247046</v>
+        <v>0.8387161007400938</v>
       </c>
       <c r="G65" t="n">
         <v>1.0</v>
       </c>
       <c r="H65" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="I65" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66">
@@ -2787,28 +2832,28 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="C66" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D66" t="n">
-        <v>0.77635853145597</v>
+        <v>0.7754868617620505</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9174749224738559</v>
+        <v>0.5780076960247046</v>
       </c>
       <c r="G66" t="n">
         <v>1.0</v>
       </c>
       <c r="H66" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="I66" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67">
@@ -2816,28 +2861,28 @@
         <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C67" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7786532066704307</v>
+        <v>0.77635853145597</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9966025821802325</v>
+        <v>0.9174749224738559</v>
       </c>
       <c r="G67" t="n">
         <v>1.0</v>
       </c>
       <c r="H67" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="I67" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68">
@@ -2845,28 +2890,28 @@
         <v>74</v>
       </c>
       <c r="B68" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="C68" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D68" t="n">
-        <v>0.7812946982846681</v>
+        <v>0.7786532066704307</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F68" t="n">
-        <v>1.0</v>
+        <v>0.9966025821802325</v>
       </c>
       <c r="G68" t="n">
         <v>1.0</v>
       </c>
       <c r="H68" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="I68" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69">
@@ -2874,28 +2919,28 @@
         <v>75</v>
       </c>
       <c r="B69" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="C69" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7941383982150164</v>
+        <v>0.7812946982846681</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8552721955564473</v>
+        <v>1.0</v>
       </c>
       <c r="G69" t="n">
         <v>1.0</v>
       </c>
       <c r="H69" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I69" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70">
@@ -2903,28 +2948,28 @@
         <v>76</v>
       </c>
       <c r="B70" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="C70" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D70" t="n">
-        <v>0.7950598025065317</v>
+        <v>0.7941383982150164</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F70" t="n">
-        <v>1.0</v>
+        <v>0.8552721955564473</v>
       </c>
       <c r="G70" t="n">
         <v>1.0</v>
       </c>
       <c r="H70" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="I70" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="71">
@@ -2932,28 +2977,28 @@
         <v>77</v>
       </c>
       <c r="B71" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="C71" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8154644253714385</v>
+        <v>0.7950598025065317</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9469134473053848</v>
+        <v>1.0</v>
       </c>
       <c r="G71" t="n">
         <v>1.0</v>
       </c>
       <c r="H71" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I71" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72">
@@ -2961,28 +3006,28 @@
         <v>78</v>
       </c>
       <c r="B72" t="n">
-        <v>2.0</v>
+        <v>119.0</v>
       </c>
       <c r="C72" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8174200949920751</v>
+        <v>0.7956213272209727</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F72" t="n">
-        <v>1.0</v>
+        <v>0.6323845489967301</v>
       </c>
       <c r="G72" t="n">
         <v>1.0</v>
       </c>
       <c r="H72" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="I72" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="73">
@@ -2990,28 +3035,28 @@
         <v>79</v>
       </c>
       <c r="B73" t="n">
-        <v>27.0</v>
+        <v>8.0</v>
       </c>
       <c r="C73" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D73" t="n">
-        <v>0.8192047109070859</v>
+        <v>0.8154644253714385</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F73" t="n">
-        <v>0.6505164664210807</v>
+        <v>0.9469134473053848</v>
       </c>
       <c r="G73" t="n">
         <v>1.0</v>
       </c>
       <c r="H73" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I73" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74">
@@ -3019,16 +3064,16 @@
         <v>80</v>
       </c>
       <c r="B74" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C74" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8280096310645008</v>
+        <v>0.8174200949920751</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F74" t="n">
         <v>1.0</v>
@@ -3037,10 +3082,10 @@
         <v>1.0</v>
       </c>
       <c r="H74" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="I74" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75">
@@ -3048,28 +3093,28 @@
         <v>81</v>
       </c>
       <c r="B75" t="n">
-        <v>2.0</v>
+        <v>27.0</v>
       </c>
       <c r="C75" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8280139825181689</v>
+        <v>0.8192047109070859</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F75" t="n">
-        <v>1.0</v>
+        <v>0.6505164664210807</v>
       </c>
       <c r="G75" t="n">
         <v>1.0</v>
       </c>
       <c r="H75" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I75" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76">
@@ -3077,28 +3122,28 @@
         <v>82</v>
       </c>
       <c r="B76" t="n">
-        <v>70.0</v>
+        <v>3.0</v>
       </c>
       <c r="C76" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8462396677009147</v>
+        <v>0.8280096310645008</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F76" t="n">
-        <v>0.7306886693818964</v>
+        <v>1.0</v>
       </c>
       <c r="G76" t="n">
         <v>1.0</v>
       </c>
       <c r="H76" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I76" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77">
@@ -3106,28 +3151,28 @@
         <v>83</v>
       </c>
       <c r="B77" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="C77" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8503047373507165</v>
+        <v>0.8280139825181689</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9464012502799048</v>
+        <v>1.0</v>
       </c>
       <c r="G77" t="n">
         <v>1.0</v>
       </c>
       <c r="H77" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="I77" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78">
@@ -3138,25 +3183,25 @@
         <v>21.0</v>
       </c>
       <c r="C78" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8536619471291053</v>
+        <v>0.8282824045985517</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8807540996884919</v>
+        <v>0.8314091033053419</v>
       </c>
       <c r="G78" t="n">
         <v>1.0</v>
       </c>
       <c r="H78" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I78" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79">
@@ -3164,28 +3209,28 @@
         <v>85</v>
       </c>
       <c r="B79" t="n">
-        <v>18.0</v>
+        <v>69.0</v>
       </c>
       <c r="C79" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8587693902916358</v>
+        <v>0.8436443523294477</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F79" t="n">
-        <v>0.6388534562738633</v>
+        <v>0.7250873423093078</v>
       </c>
       <c r="G79" t="n">
         <v>1.0</v>
       </c>
       <c r="H79" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="I79" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80">
@@ -3193,28 +3238,28 @@
         <v>86</v>
       </c>
       <c r="B80" t="n">
-        <v>6.0</v>
+        <v>20.0</v>
       </c>
       <c r="C80" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8703338365556166</v>
+        <v>0.8495021148812789</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F80" t="n">
-        <v>0.7290976000168435</v>
+        <v>0.8709454950309237</v>
       </c>
       <c r="G80" t="n">
         <v>1.0</v>
       </c>
       <c r="H80" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="I80" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81">
@@ -3222,28 +3267,28 @@
         <v>87</v>
       </c>
       <c r="B81" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="C81" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D81" t="n">
-        <v>0.871179397516028</v>
+        <v>0.8503047373507165</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8716494410551745</v>
+        <v>0.9464012502799048</v>
       </c>
       <c r="G81" t="n">
         <v>1.0</v>
       </c>
       <c r="H81" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="I81" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="82">
@@ -3251,28 +3296,28 @@
         <v>88</v>
       </c>
       <c r="B82" t="n">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
       <c r="C82" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8719802596468191</v>
+        <v>0.8587693902916358</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9867106168340096</v>
+        <v>0.6388534562738633</v>
       </c>
       <c r="G82" t="n">
         <v>1.0</v>
       </c>
       <c r="H82" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="I82" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="83">
@@ -3280,28 +3325,28 @@
         <v>89</v>
       </c>
       <c r="B83" t="n">
-        <v>22.0</v>
+        <v>6.0</v>
       </c>
       <c r="C83" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D83" t="n">
-        <v>0.88526867462175</v>
+        <v>0.8597325284535079</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F83" t="n">
-        <v>0.5618642288220153</v>
+        <v>0.9900009980032503</v>
       </c>
       <c r="G83" t="n">
         <v>1.0</v>
       </c>
       <c r="H83" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="I83" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84">
@@ -3309,28 +3354,28 @@
         <v>90</v>
       </c>
       <c r="B84" t="n">
-        <v>21.0</v>
+        <v>6.0</v>
       </c>
       <c r="C84" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D84" t="n">
-        <v>0.893210857742888</v>
+        <v>0.8703338365556166</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9685418939380712</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9174509695360366</v>
+        <v>0.7290976000168435</v>
       </c>
       <c r="G84" t="n">
         <v>1.0</v>
       </c>
       <c r="H84" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I84" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="85">
@@ -3338,28 +3383,28 @@
         <v>91</v>
       </c>
       <c r="B85" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9186977483310902</v>
+        <v>0.871179397516028</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9764519155977912</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F85" t="n">
-        <v>1.0</v>
+        <v>0.8716494410551745</v>
       </c>
       <c r="G85" t="n">
         <v>1.0</v>
       </c>
       <c r="H85" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="I85" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="86">
@@ -3367,28 +3412,28 @@
         <v>92</v>
       </c>
       <c r="B86" t="n">
-        <v>12.0</v>
+        <v>22.0</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D86" t="n">
-        <v>0.940020186481045</v>
+        <v>0.88526867462175</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9764519155977912</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F86" t="n">
-        <v>0.6127520288917194</v>
+        <v>0.5618642288220153</v>
       </c>
       <c r="G86" t="n">
         <v>1.0</v>
       </c>
       <c r="H86" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="I86" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="87">
@@ -3396,28 +3441,28 @@
         <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>41.0</v>
+        <v>11.0</v>
       </c>
       <c r="C87" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9403248077427226</v>
+        <v>0.8899411564087542</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9764519155977912</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F87" t="n">
-        <v>0.7381455815689257</v>
+        <v>0.9199913329524094</v>
       </c>
       <c r="G87" t="n">
         <v>1.0</v>
       </c>
       <c r="H87" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="I87" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="88">
@@ -3425,28 +3470,28 @@
         <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
       <c r="C88" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9525925436007908</v>
+        <v>0.893210857742888</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9764519155977912</v>
+        <v>0.9753451894893606</v>
       </c>
       <c r="F88" t="n">
-        <v>0.3767599415676906</v>
+        <v>0.9174509695360366</v>
       </c>
       <c r="G88" t="n">
         <v>1.0</v>
       </c>
       <c r="H88" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I88" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="89">
@@ -3454,28 +3499,28 @@
         <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="C89" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9554098692958957</v>
+        <v>0.9186977483310902</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9764519155977912</v>
+        <v>0.9786717407520176</v>
       </c>
       <c r="F89" t="n">
-        <v>0.6008833549187118</v>
+        <v>1.0</v>
       </c>
       <c r="G89" t="n">
         <v>1.0</v>
       </c>
       <c r="H89" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="I89" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="90">
@@ -3483,28 +3528,28 @@
         <v>96</v>
       </c>
       <c r="B90" t="n">
-        <v>9.0</v>
+        <v>40.0</v>
       </c>
       <c r="C90" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9656024498689268</v>
+        <v>0.9387003190390343</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9764519155977912</v>
+        <v>0.9786717407520176</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9048888212820623</v>
+        <v>0.7295970729284119</v>
       </c>
       <c r="G90" t="n">
         <v>1.0</v>
       </c>
       <c r="H90" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="I90" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="91">
@@ -3512,28 +3557,173 @@
         <v>97</v>
       </c>
       <c r="B91" t="n">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="C91" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.940020186481045</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.9786717407520176</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.6127520288917194</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>193</v>
+      </c>
+      <c r="I91" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
         <v>98</v>
       </c>
-      <c r="D91" t="n">
-        <v>0.9953023018384594</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.9953023018384594</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.8516108995565496</v>
-      </c>
-      <c r="G91" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H91" t="s">
-        <v>188</v>
-      </c>
-      <c r="I91" t="s">
-        <v>278</v>
+      <c r="B92" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>104</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.9525925436007908</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.9786717407520176</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.3767599415676906</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H92" t="s">
+        <v>194</v>
+      </c>
+      <c r="I92" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>104</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.9554098692958957</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.9786717407520176</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.6008833549187118</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H93" t="s">
+        <v>195</v>
+      </c>
+      <c r="I93" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>103</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.9622143210582474</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.9786717407520176</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.9165530225997003</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H94" t="s">
+        <v>196</v>
+      </c>
+      <c r="I94" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>103</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.9683699329546278</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.9786717407520176</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H95" t="s">
+        <v>197</v>
+      </c>
+      <c r="I95" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>104</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.9954512433201252</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.9954512433201252</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.7439823938521449</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H96" t="s">
+        <v>198</v>
+      </c>
+      <c r="I96" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/KEGG_raw_data/PNA79_30m_vs_PNAscr_30m_KEGG_FNN_30.xlsx
+++ b/analysis/KEGG_raw_data/PNA79_30m_vs_PNAscr_30m_KEGG_FNN_30.xlsx
@@ -53,144 +53,144 @@
     <t>fnu00130</t>
   </si>
   <si>
+    <t>fnu00330</t>
+  </si>
+  <si>
+    <t>fnu00670</t>
+  </si>
+  <si>
+    <t>fnu04122</t>
+  </si>
+  <si>
+    <t>fnu00790</t>
+  </si>
+  <si>
+    <t>fnu00470</t>
+  </si>
+  <si>
+    <t>fnu04980</t>
+  </si>
+  <si>
+    <t>rpoE</t>
+  </si>
+  <si>
+    <t>fnu02010</t>
+  </si>
+  <si>
+    <t>fnu00760</t>
+  </si>
+  <si>
+    <t>fnu03070</t>
+  </si>
+  <si>
+    <t>fnu02060</t>
+  </si>
+  <si>
+    <t>fnu00300</t>
+  </si>
+  <si>
+    <t>fnu00074</t>
+  </si>
+  <si>
+    <t>fnu00521</t>
+  </si>
+  <si>
+    <t>fnu00230</t>
+  </si>
+  <si>
+    <t>fnu03030</t>
+  </si>
+  <si>
+    <t>fnu03010</t>
+  </si>
+  <si>
+    <t>fnu00340</t>
+  </si>
+  <si>
+    <t>fnu00920</t>
+  </si>
+  <si>
+    <t>fnu00061</t>
+  </si>
+  <si>
+    <t>fnu00730</t>
+  </si>
+  <si>
+    <t>fnu03430</t>
+  </si>
+  <si>
+    <t>fnu00910</t>
+  </si>
+  <si>
+    <t>fnu00052</t>
+  </si>
+  <si>
+    <t>fnu00550</t>
+  </si>
+  <si>
+    <t>fnu00900</t>
+  </si>
+  <si>
     <t>fnu00561</t>
   </si>
   <si>
-    <t>fnu00330</t>
-  </si>
-  <si>
-    <t>fnu00670</t>
-  </si>
-  <si>
-    <t>fnu04122</t>
-  </si>
-  <si>
-    <t>fnu00790</t>
-  </si>
-  <si>
-    <t>fnu00470</t>
-  </si>
-  <si>
-    <t>fnu04980</t>
-  </si>
-  <si>
-    <t>rpoE</t>
+    <t>fnu03018</t>
   </si>
   <si>
     <t>fnu01503</t>
   </si>
   <si>
-    <t>fnu02010</t>
-  </si>
-  <si>
-    <t>fnu00760</t>
-  </si>
-  <si>
-    <t>fnu02060</t>
-  </si>
-  <si>
-    <t>fnu00300</t>
-  </si>
-  <si>
-    <t>fnu00074</t>
-  </si>
-  <si>
-    <t>fnu00521</t>
-  </si>
-  <si>
-    <t>fnu00230</t>
-  </si>
-  <si>
-    <t>fnu03030</t>
-  </si>
-  <si>
-    <t>fnu03010</t>
-  </si>
-  <si>
-    <t>fnu00340</t>
-  </si>
-  <si>
-    <t>fnu00920</t>
-  </si>
-  <si>
-    <t>fnu00061</t>
-  </si>
-  <si>
-    <t>fnu00730</t>
-  </si>
-  <si>
-    <t>fnu03430</t>
-  </si>
-  <si>
-    <t>fnu03070</t>
-  </si>
-  <si>
-    <t>fnu00910</t>
-  </si>
-  <si>
-    <t>fnu00052</t>
-  </si>
-  <si>
-    <t>fnu00550</t>
-  </si>
-  <si>
-    <t>fnu00900</t>
+    <t>fnu00523</t>
+  </si>
+  <si>
+    <t>fnu00350</t>
+  </si>
+  <si>
+    <t>fnu00780</t>
+  </si>
+  <si>
+    <t>fnu00520</t>
+  </si>
+  <si>
+    <t>fnu00410</t>
+  </si>
+  <si>
+    <t>fnu00630</t>
+  </si>
+  <si>
+    <t>fnu00625</t>
+  </si>
+  <si>
+    <t>fnu00362</t>
+  </si>
+  <si>
+    <t>fnu01212</t>
+  </si>
+  <si>
+    <t>fnu00460</t>
+  </si>
+  <si>
+    <t>fnu00051</t>
+  </si>
+  <si>
+    <t>fnu00250</t>
   </si>
   <si>
     <t>fnu01501</t>
   </si>
   <si>
-    <t>fnu03018</t>
-  </si>
-  <si>
-    <t>fnu00523</t>
-  </si>
-  <si>
-    <t>fnu00350</t>
-  </si>
-  <si>
-    <t>fnu00780</t>
-  </si>
-  <si>
-    <t>fnu00520</t>
-  </si>
-  <si>
-    <t>fnu00410</t>
-  </si>
-  <si>
-    <t>fnu00630</t>
-  </si>
-  <si>
-    <t>fnu00625</t>
-  </si>
-  <si>
-    <t>fnu00362</t>
-  </si>
-  <si>
-    <t>fnu01212</t>
-  </si>
-  <si>
-    <t>fnu00460</t>
-  </si>
-  <si>
-    <t>fnu00051</t>
-  </si>
-  <si>
-    <t>fnu00250</t>
+    <t>fnu01230</t>
+  </si>
+  <si>
+    <t>fnu00240</t>
+  </si>
+  <si>
+    <t>fnu03060</t>
   </si>
   <si>
     <t>fnu01100</t>
   </si>
   <si>
-    <t>fnu01230</t>
-  </si>
-  <si>
-    <t>fnu00240</t>
-  </si>
-  <si>
-    <t>fnu03060</t>
-  </si>
-  <si>
     <t>fnu00541</t>
   </si>
   <si>
@@ -266,30 +266,30 @@
     <t>fnu00552</t>
   </si>
   <si>
+    <t>fnu01120</t>
+  </si>
+  <si>
+    <t>fnu00650</t>
+  </si>
+  <si>
+    <t>fnu00310</t>
+  </si>
+  <si>
+    <t>fnu00190</t>
+  </si>
+  <si>
+    <t>fnu00071</t>
+  </si>
+  <si>
+    <t>fnu01502</t>
+  </si>
+  <si>
+    <t>fnu00770</t>
+  </si>
+  <si>
     <t>fnu02020</t>
   </si>
   <si>
-    <t>fnu01120</t>
-  </si>
-  <si>
-    <t>fnu00650</t>
-  </si>
-  <si>
-    <t>fnu00310</t>
-  </si>
-  <si>
-    <t>fnu00190</t>
-  </si>
-  <si>
-    <t>fnu00071</t>
-  </si>
-  <si>
-    <t>fnu01502</t>
-  </si>
-  <si>
-    <t>fnu00770</t>
-  </si>
-  <si>
     <t>fnu00010</t>
   </si>
   <si>
@@ -344,141 +344,141 @@
     <t>Ubiquinone and other terpenoid-quinone biosynthesis</t>
   </si>
   <si>
+    <t>Arginine and proline metabolism</t>
+  </si>
+  <si>
+    <t>One carbon pool by folate</t>
+  </si>
+  <si>
+    <t>Sulfur relay system</t>
+  </si>
+  <si>
+    <t>Folate biosynthesis</t>
+  </si>
+  <si>
+    <t>D-Amino acid metabolism</t>
+  </si>
+  <si>
+    <t>Cobalamin transport and metabolism</t>
+  </si>
+  <si>
+    <t>ABC transporters</t>
+  </si>
+  <si>
+    <t>Nicotinate and nicotinamide metabolism</t>
+  </si>
+  <si>
+    <t>Bacterial secretion system</t>
+  </si>
+  <si>
+    <t>Phosphotransferase system (PTS)</t>
+  </si>
+  <si>
+    <t>Lysine biosynthesis</t>
+  </si>
+  <si>
+    <t>Mycolic acid biosynthesis</t>
+  </si>
+  <si>
+    <t>Streptomycin biosynthesis</t>
+  </si>
+  <si>
+    <t>Purine metabolism</t>
+  </si>
+  <si>
+    <t>DNA replication</t>
+  </si>
+  <si>
+    <t>Ribosome</t>
+  </si>
+  <si>
+    <t>Histidine metabolism</t>
+  </si>
+  <si>
+    <t>Sulfur metabolism</t>
+  </si>
+  <si>
+    <t>Fatty acid biosynthesis</t>
+  </si>
+  <si>
+    <t>Thiamine metabolism</t>
+  </si>
+  <si>
+    <t>Mismatch repair</t>
+  </si>
+  <si>
+    <t>Nitrogen metabolism</t>
+  </si>
+  <si>
+    <t>Galactose metabolism</t>
+  </si>
+  <si>
+    <t>Peptidoglycan biosynthesis</t>
+  </si>
+  <si>
+    <t>Terpenoid backbone biosynthesis</t>
+  </si>
+  <si>
     <t>Glycerolipid metabolism</t>
   </si>
   <si>
-    <t>Arginine and proline metabolism</t>
-  </si>
-  <si>
-    <t>One carbon pool by folate</t>
-  </si>
-  <si>
-    <t>Sulfur relay system</t>
-  </si>
-  <si>
-    <t>Folate biosynthesis</t>
-  </si>
-  <si>
-    <t>D-Amino acid metabolism</t>
-  </si>
-  <si>
-    <t>Cobalamin transport and metabolism</t>
+    <t>RNA degradation</t>
   </si>
   <si>
     <t>Cationic antimicrobial peptide (CAMP) resistance</t>
   </si>
   <si>
-    <t>ABC transporters</t>
-  </si>
-  <si>
-    <t>Nicotinate and nicotinamide metabolism</t>
-  </si>
-  <si>
-    <t>Phosphotransferase system (PTS)</t>
-  </si>
-  <si>
-    <t>Lysine biosynthesis</t>
-  </si>
-  <si>
-    <t>Mycolic acid biosynthesis</t>
-  </si>
-  <si>
-    <t>Streptomycin biosynthesis</t>
-  </si>
-  <si>
-    <t>Purine metabolism</t>
-  </si>
-  <si>
-    <t>DNA replication</t>
-  </si>
-  <si>
-    <t>Ribosome</t>
-  </si>
-  <si>
-    <t>Histidine metabolism</t>
-  </si>
-  <si>
-    <t>Sulfur metabolism</t>
-  </si>
-  <si>
-    <t>Fatty acid biosynthesis</t>
-  </si>
-  <si>
-    <t>Thiamine metabolism</t>
-  </si>
-  <si>
-    <t>Mismatch repair</t>
-  </si>
-  <si>
-    <t>Bacterial secretion system</t>
-  </si>
-  <si>
-    <t>Nitrogen metabolism</t>
-  </si>
-  <si>
-    <t>Galactose metabolism</t>
-  </si>
-  <si>
-    <t>Peptidoglycan biosynthesis</t>
-  </si>
-  <si>
-    <t>Terpenoid backbone biosynthesis</t>
+    <t>Polyketide sugar unit biosynthesis</t>
+  </si>
+  <si>
+    <t>Tyrosine metabolism</t>
+  </si>
+  <si>
+    <t>Biotin metabolism</t>
+  </si>
+  <si>
+    <t>Amino sugar and nucleotide sugar metabolism</t>
+  </si>
+  <si>
+    <t>beta-Alanine metabolism</t>
+  </si>
+  <si>
+    <t>Glyoxylate and dicarboxylate metabolism</t>
+  </si>
+  <si>
+    <t>Chloroalkane and chloroalkene degradation</t>
+  </si>
+  <si>
+    <t>Benzoate degradation</t>
+  </si>
+  <si>
+    <t>Fatty acid metabolism</t>
+  </si>
+  <si>
+    <t>Cyanoamino acid metabolism</t>
+  </si>
+  <si>
+    <t>Fructose and mannose metabolism</t>
+  </si>
+  <si>
+    <t>Alanine, aspartate and glutamate metabolism</t>
   </si>
   <si>
     <t>beta-Lactam resistance</t>
   </si>
   <si>
-    <t>RNA degradation</t>
-  </si>
-  <si>
-    <t>Polyketide sugar unit biosynthesis</t>
-  </si>
-  <si>
-    <t>Tyrosine metabolism</t>
-  </si>
-  <si>
-    <t>Biotin metabolism</t>
-  </si>
-  <si>
-    <t>Amino sugar and nucleotide sugar metabolism</t>
-  </si>
-  <si>
-    <t>beta-Alanine metabolism</t>
-  </si>
-  <si>
-    <t>Glyoxylate and dicarboxylate metabolism</t>
-  </si>
-  <si>
-    <t>Chloroalkane and chloroalkene degradation</t>
-  </si>
-  <si>
-    <t>Benzoate degradation</t>
-  </si>
-  <si>
-    <t>Fatty acid metabolism</t>
-  </si>
-  <si>
-    <t>Cyanoamino acid metabolism</t>
-  </si>
-  <si>
-    <t>Fructose and mannose metabolism</t>
-  </si>
-  <si>
-    <t>Alanine, aspartate and glutamate metabolism</t>
+    <t>Biosynthesis of amino acids</t>
+  </si>
+  <si>
+    <t>Pyrimidine metabolism</t>
+  </si>
+  <si>
+    <t>Protein export</t>
   </si>
   <si>
     <t>Metabolic pathways</t>
   </si>
   <si>
-    <t>Biosynthesis of amino acids</t>
-  </si>
-  <si>
-    <t>Pyrimidine metabolism</t>
-  </si>
-  <si>
-    <t>Protein export</t>
-  </si>
-  <si>
     <t>O-Antigen nucleotide sugar biosynthesis</t>
   </si>
   <si>
@@ -554,30 +554,30 @@
     <t>Teichoic acid biosynthesis</t>
   </si>
   <si>
+    <t>Microbial metabolism in diverse environments</t>
+  </si>
+  <si>
+    <t>Butanoate metabolism</t>
+  </si>
+  <si>
+    <t>Lysine degradation</t>
+  </si>
+  <si>
+    <t>Oxidative phosphorylation</t>
+  </si>
+  <si>
+    <t>Fatty acid degradation</t>
+  </si>
+  <si>
+    <t>Vancomycin resistance</t>
+  </si>
+  <si>
+    <t>Pantothenate and CoA biosynthesis</t>
+  </si>
+  <si>
     <t>Two-component system</t>
   </si>
   <si>
-    <t>Microbial metabolism in diverse environments</t>
-  </si>
-  <si>
-    <t>Butanoate metabolism</t>
-  </si>
-  <si>
-    <t>Lysine degradation</t>
-  </si>
-  <si>
-    <t>Oxidative phosphorylation</t>
-  </si>
-  <si>
-    <t>Fatty acid degradation</t>
-  </si>
-  <si>
-    <t>Vancomycin resistance</t>
-  </si>
-  <si>
-    <t>Pantothenate and CoA biosynthesis</t>
-  </si>
-  <si>
     <t>Glycolysis / Gluconeogenesis</t>
   </si>
   <si>
@@ -626,9 +626,6 @@
     <t>cds-C4N14_00245;cds-C4N14_00250</t>
   </si>
   <si>
-    <t>cds-C4N14_04115;cds-C4N14_09955;cds-C4N14_09805;cds-C4N14_09555;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860</t>
-  </si>
-  <si>
     <t>cds-C4N14_09955;cds-C4N14_09725;cds-C4N14_08445;cds-C4N14_06875;cds-C4N14_06380</t>
   </si>
   <si>
@@ -650,15 +647,15 @@
     <t>cds-C4N14_03280;cds-C4N14_02960;cds-C4N14_09830;cds-C4N14_05965;cds-FoxI;cds-C4N14_03355;cds-C4N14_09820;cds-C4N14_09825;cds-C4N14_09130;cds-C4N14_09125;cds-C4N14_08200;cds-C4N14_07915;cds-C4N14_07920;cds-C4N14_09840;cds-C4N14_05930;cds-C4N14_09850;cds-C4N14_06785;cds-C4N14_03135;cds-C4N14_03630;cds-C4N14_05935;cds-C4N14_06060;cds-C4N14_05940;cds-C4N14_05955;cds-C4N14_01185;cds-C4N14_09845;cds-C4N14_05960;cds-C4N14_07925;cds-C4N14_05945;cds-C4N14_04025;cds-C4N14_05950;cds-C4N14_06795;cds-C4N14_06065;cds-C4N14_06685;cds-C4N14_06080;cds-C4N14_06790;cds-C4N14_06090;cds-C4N14_06125;cds-C4N14_06105;cds-C4N14_03635;cds-FunR7;cds-C4N14_06085;cds-C4N14_06095;cds-C4N14_07930;cds-C4N14_06120;cds-C4N14_06070;cds-C4N14_06690;cds-C4N14_08460;cds-C4N14_06075;cds-C4N14_08420;cds-C4N14_06100;cds-C4N14_08425;cds-C4N14_08415;cds-C4N14_08440;cds-C4N14_01180;cds-C4N14_09835;cds-C4N14_06110;cds-C4N14_05525;cds-C4N14_04020;cds-C4N14_03890;cds-C4N14_08450;cds-C4N14_08430;cds-C4N14_08455;cds-C4N14_01565;cds-C4N14_01300;cds-C4N14_03940;cds-C4N14_03885;cds-C4N14_06775;cds-C4N14_06115;cds-C4N14_08435;cds-C4N14_03895;cds-C4N14_03905;cds-C4N14_08445;cds-C4N14_03900;cds-C4N14_01295;cds-C4N14_10275;cds-C4N14_06800;cds-C4N14_03935;cds-C4N14_03520;cds-C4N14_06780;cds-C4N14_03910;cds-C4N14_03535;cds-C4N14_03130;cds-C4N14_03930;cds-C4N14_03925;cds-C4N14_03915;cds-C4N14_10265;cds-C4N14_10260;cds-C4N14_07010;cds-C4N14_07005;cds-C4N14_03530;cds-C4N14_04030;cds-C4N14_03920;cds-C4N14_10255;cds-C4N14_03880;cds-C4N14_03525;cds-C4N14_10270;cds-C4N14_07030;cds-C4N14_05180;cds-C4N14_08750;cds-C4N14_08740;cds-C4N14_07015;cds-C4N14_07025;cds-C4N14_08730;cds-C4N14_05250;cds-C4N14_07020;cds-C4N14_05230;cds-C4N14_07035;cds-C4N14_05245;cds-C4N14_05240;cds-C4N14_05420;cds-C4N14_08745;cds-C4N14_08725;cds-C4N14_08735;cds-C4N14_05215;cds-C4N14_05235;cds-C4N14_05190;cds-C4N14_05220;cds-C4N14_08720;cds-C4N14_05205;cds-C4N14_05200;cds-C4N14_05185;cds-C4N14_05225;cds-C4N14_05195;cds-C4N14_05210;cds-C4N14_07040</t>
   </si>
   <si>
-    <t>cds-C4N14_09855;cds-C4N14_09255;cds-C4N14_05760;cds-C4N14_05755;cds-C4N14_05430</t>
-  </si>
-  <si>
     <t>cds-C4N14_04685;cds-C4N14_04905;cds-C4N14_04910;cds-C4N14_04915;cds-C4N14_05265;cds-C4N14_05270;cds-C4N14_05275;cds-C4N14_09325;cds-C4N14_09320;cds-C4N14_09165;cds-C4N14_09160;cds-C4N14_09145;cds-C4N14_08950;cds-C4N14_08945;cds-C4N14_08940;cds-C4N14_08900;cds-C4N14_08895;cds-C4N14_08890;cds-C4N14_08885;cds-C4N14_08745;cds-C4N14_08220;cds-C4N14_08215;cds-C4N14_08210;cds-C4N14_07440;cds-C4N14_07015;cds-C4N14_07010;cds-C4N14_06470;cds-C4N14_06465;cds-C4N14_06460;cds-C4N14_06295;cds-C4N14_06290;cds-C4N14_06285;cds-C4N14_10570;cds-C4N14_10575;cds-C4N14_10580;cds-C4N14_10585;cds-C4N14_10590;cds-C4N14_00030;cds-C4N14_00035;cds-C4N14_00040;cds-C4N14_00045;cds-C4N14_00050;cds-C4N14_01555;cds-C4N14_01560;cds-C4N14_01565;cds-C4N14_01615;cds-C4N14_01620;cds-C4N14_01625;cds-C4N14_01630;cds-C4N14_03015;cds-C4N14_03010;cds-C4N14_03005;cds-C4N14_03000;cds-C4N14_02950;cds-C4N14_02945</t>
   </si>
   <si>
     <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_04695;cds-C4N14_05140;cds-C4N14_10005;cds-C4N14_06485;cds-C4N14_06200;cds-C4N14_06120</t>
   </si>
   <si>
+    <t>cds-C4N14_02370;cds-C4N14_09550;cds-C4N14_08725;cds-C4N14_08720;cds-C4N14_06785;cds-C4N14_05765;cds-C4N14_05425;cds-C4N14_10405;cds-C4N14_00680;cds-C4N14_01180;cds-C4N14_01890;cds-C4N14_02100;cds-C4N14_02135;cds-C4N14_02145</t>
+  </si>
+  <si>
     <t>cds-C4N14_09095;cds-C4N14_09090;cds-C4N14_09080;cds-C4N14_07595;cds-C4N14_10630;cds-C4N14_10635;cds-C4N14_10880;cds-C4N14_00270;cds-C4N14_01480;cds-C4N14_01530;cds-C4N14_01535;cds-C4N14_03445</t>
   </si>
   <si>
@@ -695,9 +692,6 @@
     <t>cds-C4N14_04760;cds-C4N14_05260;cds-C4N14_09610;cds-C4N14_09560;cds-C4N14_09270;cds-C4N14_09150;cds-C4N14_08755;cds-C4N14_07585;cds-C4N14_06825;cds-C4N14_05595;cds-C4N14_05460;cds-C4N14_10345;cds-C4N14_00445;cds-C4N14_00470;cds-C4N14_01175;cds-C4N14_03915;cds-C4N14_03745;cds-C4N14_03460;cds-C4N14_02900</t>
   </si>
   <si>
-    <t>cds-C4N14_02370;cds-C4N14_09550;cds-C4N14_08725;cds-C4N14_08720;cds-C4N14_06785;cds-C4N14_05425;cds-C4N14_10405;cds-C4N14_00680;cds-C4N14_01180;cds-C4N14_01890;cds-C4N14_02100;cds-C4N14_02135;cds-C4N14_02145</t>
-  </si>
-  <si>
     <t>cds-C4N14_04880;cds-C4N14_09785;cds-C4N14_08920;cds-C4N14_08805</t>
   </si>
   <si>
@@ -710,12 +704,15 @@
     <t>cds-C4N14_02450;cds-C4N14_09835;cds-C4N14_09750;cds-C4N14_06090;cds-C4N14_05480;cds-C4N14_05470;cds-C4N14_05465;cds-C4N14_10740;cds-C4N14_00465;cds-C4N14_01475;cds-C4N14_01505</t>
   </si>
   <si>
-    <t>cds-C4N14_09855;cds-C4N14_09605;cds-C4N14_06365;cds-C4N14_06075;cds-C4N14_05760;cds-C4N14_05755;cds-C4N14_00485</t>
+    <t>cds-C4N14_04115;cds-C4N14_09955;cds-C4N14_09555;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860</t>
   </si>
   <si>
     <t>cds-C4N14_01725;cds-C4N14_10105;cds-C4N14_09845;cds-C4N14_09340;cds-C4N14_09195;cds-C4N14_08865;cds-C4N14_06080;cds-C4N14_01060;cds-C4N14_01390;cds-C4N14_03510;cds-C4N14_03145</t>
   </si>
   <si>
+    <t>cds-C4N14_09855;cds-C4N14_09255;cds-C4N14_05765;cds-C4N14_05760;cds-C4N14_05755;cds-C4N14_05430</t>
+  </si>
+  <si>
     <t>cds-C4N14_05615;cds-C4N14_00890;cds-C4N14_01020</t>
   </si>
   <si>
@@ -752,7 +749,7 @@
     <t>cds-C4N14_02395;cds-C4N14_05240;cds-C4N14_10080;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_09965;cds-C4N14_09785;cds-C4N14_08450;cds-C4N14_08330;cds-C4N14_07240;cds-C4N14_06380;cds-C4N14_10420;cds-C4N14_00585</t>
   </si>
   <si>
-    <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_02450;cds-C4N14_02565;cds-C4N14_02625;cds-C4N14_02635;cds-C4N14_02695;cds-C4N14_02740;cds-C4N14_02745;cds-C4N14_02770;cds-C4N14_02775;cds-C4N14_02780;cds-C4N14_02800;cds-C4N14_02805;cds-C4N14_01785;cds-C4N14_01780;cds-C4N14_04115;cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04130;cds-C4N14_04135;cds-C4N14_04160;cds-C4N14_04180;cds-C4N14_04250;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04460;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_04670;cds-C4N14_04695;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04795;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_04920;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05135;cds-C4N14_05140;cds-C4N14_05175;cds-C4N14_05180;cds-C4N14_05185;cds-C4N14_05190;cds-C4N14_05195;cds-C4N14_05200;cds-C4N14_05205;cds-C4N14_05210;cds-C4N14_05215;cds-C4N14_05220;cds-C4N14_05230;cds-C4N14_05240;cds-C4N14_05280;cds-C4N14_10125;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_10085;cds-C4N14_10080;cds-C4N14_10075;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10060;cds-C4N14_10055;cds-C4N14_10045;cds-C4N14_10040;cds-C4N14_10035;cds-C4N14_10005;cds-C4N14_09985;cds-C4N14_09965;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09835;cds-C4N14_09810;cds-C4N14_09805;cds-C4N14_09785;cds-C4N14_09770;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09725;cds-C4N14_09720;cds-C4N14_09685;cds-C4N14_09605;cds-C4N14_09555;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09520;cds-C4N14_09465;cds-C4N14_09430;cds-C4N14_09330;cds-C4N14_09265;cds-C4N14_09260;cds-C4N14_09255;cds-C4N14_09250;cds-C4N14_09245;cds-C4N14_09135;cds-C4N14_09115;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08930;cds-C4N14_08920;cds-C4N14_08830;cds-C4N14_08825;cds-C4N14_08805;cds-C4N14_08690;cds-C4N14_08670;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08520;cds-C4N14_08515;cds-C4N14_08450;cds-C4N14_08445;cds-C4N14_08440;cds-C4N14_08435;cds-C4N14_08430;cds-C4N14_08410;cds-C4N14_08400;cds-C4N14_08330;cds-C4N14_08295;cds-C4N14_08265;cds-C4N14_08260;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08225;cds-C4N14_08185;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07930;cds-C4N14_07925;cds-C4N14_07920;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07840;cds-C4N14_07815;cds-C4N14_07800;cds-C4N14_07790;cds-C4N14_07725;cds-C4N14_07660;cds-C4N14_07655;cds-C4N14_07620;cds-C4N14_07615;cds-C4N14_07610;cds-C4N14_07605;cds-C4N14_07595;cds-C4N14_07565;cds-C4N14_07560;cds-C4N14_07545;cds-C4N14_07525;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07470;cds-C4N14_07415;cds-C4N14_07410;cds-C4N14_07405;cds-C4N14_07380;cds-C4N14_07370;cds-C4N14_07355;cds-C4N14_07345;cds-C4N14_07340;cds-C4N14_07325;cds-C4N14_07315;cds-C4N14_07310;cds-C4N14_07300;cds-C4N14_07290;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_07220;cds-C4N14_07175;cds-C4N14_07170;cds-C4N14_07165;cds-C4N14_07115;cds-C4N14_07100;cds-C4N14_07095;cds-C4N14_07090;cds-C4N14_07070;cds-C4N14_07025;cds-C4N14_06915;cds-C4N14_06885;cds-C4N14_06875;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06535;cds-C4N14_06495;cds-C4N14_06485;cds-C4N14_06480;cds-C4N14_06430;cds-C4N14_06380;cds-C4N14_06365;cds-C4N14_06345;cds-C4N14_06320;cds-C4N14_06310;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06200;cds-C4N14_06120;cds-C4N14_06090;cds-C4N14_06075;cds-C4N14_06030;cds-C4N14_06010;cds-C4N14_06005;cds-C4N14_05980;cds-C4N14_05815;cds-C4N14_05800;cds-C4N14_05790;cds-C4N14_05745;cds-C4N14_05620;cds-C4N14_05615;cds-C4N14_05600;cds-C4N14_05580;cds-C4N14_05575;cds-C4N14_05485;cds-C4N14_05480;cds-C4N14_05475;cds-C4N14_05465;cds-C4N14_10135;cds-C4N14_10145;cds-C4N14_10260;cds-C4N14_10310;cds-C4N14_10420;cds-C4N14_10440;cds-C4N14_10455;cds-C4N14_10465;cds-C4N14_10470;cds-C4N14_10475;cds-C4N14_10485;cds-C4N14_10490;cds-C4N14_10495;cds-C4N14_10515;cds-C4N14_10525;cds-C4N14_10535;cds-C4N14_10630;cds-C4N14_10635;cds-C4N14_10640;cds-C4N14_10690;cds-C4N14_10695;cds-C4N14_10700;cds-C4N14_10705;cds-C4N14_10710;cds-C4N14_10715;cds-C4N14_10725;cds-C4N14_10735;cds-C4N14_10740;cds-C4N14_10800;cds-C4N14_10805;cds-C4N14_10835;cds-C4N14_10840;cds-C4N14_10860;cds-C4N14_10865;cds-C4N14_10870;cds-C4N14_10880;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00125;cds-C4N14_00210;cds-C4N14_00215;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00370;cds-C4N14_00375;cds-C4N14_00465;cds-C4N14_00585;cds-C4N14_00590;cds-C4N14_00595;cds-C4N14_00605;cds-C4N14_00670;cds-C4N14_00890;cds-C4N14_00950;cds-C4N14_01020;cds-C4N14_01040;cds-C4N14_01055;cds-C4N14_01065;cds-C4N14_01240;cds-C4N14_01245;cds-C4N14_01250;cds-C4N14_01260;cds-C4N14_01265;cds-C4N14_01270;cds-C4N14_01275;cds-C4N14_01280;cds-C4N14_01285;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01330;cds-C4N14_01335;cds-C4N14_01340;cds-C4N14_01345;cds-C4N14_01355;cds-C4N14_01360;cds-C4N14_01365;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01475;cds-C4N14_01500;cds-C4N14_01505;cds-C4N14_01515;cds-C4N14_01585;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860;cds-C4N14_03840;cds-C4N14_03815;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03755;cds-C4N14_03750;cds-C4N14_03735;cds-C4N14_03730;cds-C4N14_03725;cds-C4N14_03720;cds-C4N14_03680;cds-C4N14_03565;cds-C4N14_03545;cds-C4N14_03530;cds-C4N14_03490;cds-C4N14_03470;cds-C4N14_03425;cds-C4N14_03415;cds-C4N14_03345;cds-C4N14_03065;cds-C4N14_03060;cds-C4N14_02995;cds-C4N14_01845;cds-C4N14_01950;cds-C4N14_02030;cds-C4N14_02045;cds-C4N14_02080;cds-C4N14_02205;cds-C4N14_02210;cds-C4N14_02215</t>
+    <t>cds-C4N14_09855;cds-C4N14_09605;cds-C4N14_06365;cds-C4N14_06075;cds-C4N14_05765;cds-C4N14_05760;cds-C4N14_05755;cds-C4N14_00485</t>
   </si>
   <si>
     <t>cds-C4N14_02565;cds-C4N14_04180;cds-C4N14_04745;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05175;cds-C4N14_10105;cds-C4N14_10035;cds-C4N14_09115;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08330;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07565;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07095;cds-C4N14_06885;cds-C4N14_06625;cds-C4N14_06380;cds-C4N14_06030;cds-C4N14_10260;cds-C4N14_10485;cds-C4N14_10860;cds-C4N14_00375;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_03680;cds-C4N14_03060</t>
@@ -764,6 +761,9 @@
     <t>cds-C4N14_02370;cds-C4N14_02675;cds-C4N14_05250;cds-C4N14_09550;cds-C4N14_08725;cds-C4N14_08720;cds-C4N14_06785;cds-C4N14_05425;cds-C4N14_10405;cds-C4N14_00220;cds-C4N14_00225;cds-C4N14_00680;cds-C4N14_01180;cds-C4N14_01890</t>
   </si>
   <si>
+    <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_02450;cds-C4N14_02565;cds-C4N14_02625;cds-C4N14_02635;cds-C4N14_02695;cds-C4N14_02740;cds-C4N14_02745;cds-C4N14_02770;cds-C4N14_02775;cds-C4N14_02780;cds-C4N14_02800;cds-C4N14_02805;cds-C4N14_01785;cds-C4N14_01780;cds-C4N14_04115;cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04130;cds-C4N14_04135;cds-C4N14_04160;cds-C4N14_04180;cds-C4N14_04250;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04460;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_04670;cds-C4N14_04695;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04795;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_04920;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05135;cds-C4N14_05140;cds-C4N14_05175;cds-C4N14_05180;cds-C4N14_05185;cds-C4N14_05190;cds-C4N14_05195;cds-C4N14_05200;cds-C4N14_05205;cds-C4N14_05210;cds-C4N14_05215;cds-C4N14_05220;cds-C4N14_05230;cds-C4N14_05240;cds-C4N14_05280;cds-C4N14_10125;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_10085;cds-C4N14_10080;cds-C4N14_10075;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10060;cds-C4N14_10055;cds-C4N14_10045;cds-C4N14_10040;cds-C4N14_10035;cds-C4N14_10005;cds-C4N14_09985;cds-C4N14_09965;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09835;cds-C4N14_09810;cds-C4N14_09785;cds-C4N14_09770;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09725;cds-C4N14_09720;cds-C4N14_09685;cds-C4N14_09605;cds-C4N14_09555;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09520;cds-C4N14_09465;cds-C4N14_09430;cds-C4N14_09330;cds-C4N14_09265;cds-C4N14_09260;cds-C4N14_09255;cds-C4N14_09250;cds-C4N14_09245;cds-C4N14_09135;cds-C4N14_09115;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08930;cds-C4N14_08920;cds-C4N14_08830;cds-C4N14_08825;cds-C4N14_08805;cds-C4N14_08690;cds-C4N14_08670;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08520;cds-C4N14_08515;cds-C4N14_08450;cds-C4N14_08445;cds-C4N14_08440;cds-C4N14_08435;cds-C4N14_08430;cds-C4N14_08410;cds-C4N14_08400;cds-C4N14_08330;cds-C4N14_08295;cds-C4N14_08265;cds-C4N14_08260;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08225;cds-C4N14_08185;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07930;cds-C4N14_07925;cds-C4N14_07920;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07840;cds-C4N14_07815;cds-C4N14_07800;cds-C4N14_07790;cds-C4N14_07725;cds-C4N14_07660;cds-C4N14_07655;cds-C4N14_07620;cds-C4N14_07615;cds-C4N14_07610;cds-C4N14_07605;cds-C4N14_07595;cds-C4N14_07565;cds-C4N14_07560;cds-C4N14_07545;cds-C4N14_07525;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07470;cds-C4N14_07415;cds-C4N14_07410;cds-C4N14_07405;cds-C4N14_07380;cds-C4N14_07370;cds-C4N14_07355;cds-C4N14_07345;cds-C4N14_07340;cds-C4N14_07325;cds-C4N14_07315;cds-C4N14_07310;cds-C4N14_07300;cds-C4N14_07290;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_07220;cds-C4N14_07175;cds-C4N14_07170;cds-C4N14_07165;cds-C4N14_07115;cds-C4N14_07100;cds-C4N14_07095;cds-C4N14_07090;cds-C4N14_07070;cds-C4N14_07025;cds-C4N14_06915;cds-C4N14_06885;cds-C4N14_06875;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06535;cds-C4N14_06495;cds-C4N14_06485;cds-C4N14_06480;cds-C4N14_06430;cds-C4N14_06380;cds-C4N14_06365;cds-C4N14_06345;cds-C4N14_06320;cds-C4N14_06310;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06200;cds-C4N14_06120;cds-C4N14_06090;cds-C4N14_06075;cds-C4N14_06030;cds-C4N14_06010;cds-C4N14_06005;cds-C4N14_05980;cds-C4N14_05815;cds-C4N14_05800;cds-C4N14_05790;cds-C4N14_05745;cds-C4N14_05620;cds-C4N14_05615;cds-C4N14_05600;cds-C4N14_05580;cds-C4N14_05575;cds-C4N14_05485;cds-C4N14_05480;cds-C4N14_05475;cds-C4N14_05465;cds-C4N14_10135;cds-C4N14_10145;cds-C4N14_10260;cds-C4N14_10310;cds-C4N14_10420;cds-C4N14_10440;cds-C4N14_10455;cds-C4N14_10465;cds-C4N14_10470;cds-C4N14_10475;cds-C4N14_10485;cds-C4N14_10490;cds-C4N14_10495;cds-C4N14_10515;cds-C4N14_10525;cds-C4N14_10535;cds-C4N14_10630;cds-C4N14_10635;cds-C4N14_10640;cds-C4N14_10690;cds-C4N14_10695;cds-C4N14_10700;cds-C4N14_10705;cds-C4N14_10710;cds-C4N14_10715;cds-C4N14_10725;cds-C4N14_10735;cds-C4N14_10740;cds-C4N14_10800;cds-C4N14_10805;cds-C4N14_10835;cds-C4N14_10840;cds-C4N14_10860;cds-C4N14_10865;cds-C4N14_10870;cds-C4N14_10880;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00125;cds-C4N14_00210;cds-C4N14_00215;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00370;cds-C4N14_00375;cds-C4N14_00465;cds-C4N14_00585;cds-C4N14_00590;cds-C4N14_00595;cds-C4N14_00605;cds-C4N14_00670;cds-C4N14_00890;cds-C4N14_00950;cds-C4N14_01020;cds-C4N14_01040;cds-C4N14_01055;cds-C4N14_01065;cds-C4N14_01240;cds-C4N14_01245;cds-C4N14_01250;cds-C4N14_01260;cds-C4N14_01265;cds-C4N14_01270;cds-C4N14_01275;cds-C4N14_01280;cds-C4N14_01285;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01330;cds-C4N14_01335;cds-C4N14_01340;cds-C4N14_01345;cds-C4N14_01355;cds-C4N14_01360;cds-C4N14_01365;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01475;cds-C4N14_01500;cds-C4N14_01505;cds-C4N14_01515;cds-C4N14_01585;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860;cds-C4N14_03840;cds-C4N14_03815;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03755;cds-C4N14_03750;cds-C4N14_03735;cds-C4N14_03730;cds-C4N14_03725;cds-C4N14_03720;cds-C4N14_03680;cds-C4N14_03565;cds-C4N14_03545;cds-C4N14_03530;cds-C4N14_03490;cds-C4N14_03470;cds-C4N14_03425;cds-C4N14_03415;cds-C4N14_03345;cds-C4N14_03065;cds-C4N14_03060;cds-C4N14_02995;cds-C4N14_01845;cds-C4N14_01950;cds-C4N14_02030;cds-C4N14_02045;cds-C4N14_02080;cds-C4N14_02205;cds-C4N14_02210;cds-C4N14_02215</t>
+  </si>
+  <si>
     <t>cds-C4N14_05280;cds-C4N14_05800;cds-C4N14_05615;cds-C4N14_00890;cds-C4N14_00950;cds-C4N14_01020;cds-C4N14_03065;cds-C4N14_02215</t>
   </si>
   <si>
@@ -839,9 +839,6 @@
     <t>cds-C4N14_05905;cds-C4N14_01035</t>
   </si>
   <si>
-    <t>cds-C4N14_04330;cds-C4N14_04490;cds-C4N14_04495;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04990;cds-C4N14_04995;cds-C4N14_09750;cds-C4N14_05830;cds-C4N14_05825;cds-C4N14_10315;cds-C4N14_10320;cds-C4N14_10325;cds-C4N14_10330;cds-C4N14_10420;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03775;cds-C4N14_02185;cds-C4N14_02190;cds-C4N14_02195</t>
-  </si>
-  <si>
     <t>cds-C4N14_02800;cds-C4N14_04375;cds-C4N14_04380;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04670;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_05010;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09785;cds-C4N14_09750;cds-C4N14_09685;cds-C4N14_09540;cds-C4N14_09430;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08155;cds-C4N14_07565;cds-C4N14_07115;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06885;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06030;cds-C4N14_10135;cds-C4N14_10260;cds-C4N14_10515;cds-C4N14_10535;cds-C4N14_10635;cds-C4N14_10865;cds-C4N14_10880;cds-C4N14_00210;cds-C4N14_01055;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03680;cds-C4N14_03060;cds-C4N14_01950;cds-C4N14_02080</t>
   </si>
   <si>
@@ -861,6 +858,9 @@
   </si>
   <si>
     <t>cds-C4N14_04160;cds-C4N14_09955;cds-C4N14_08670;cds-C4N14_08400;cds-C4N14_10145;cds-C4N14_03415</t>
+  </si>
+  <si>
+    <t>cds-C4N14_04330;cds-C4N14_04490;cds-C4N14_04495;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04990;cds-C4N14_04995;cds-C4N14_09750;cds-C4N14_05830;cds-C4N14_05825;cds-C4N14_05765;cds-C4N14_10315;cds-C4N14_10320;cds-C4N14_10325;cds-C4N14_10330;cds-C4N14_10420;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03775;cds-C4N14_02185;cds-C4N14_02190;cds-C4N14_02195</t>
   </si>
   <si>
     <t>cds-C4N14_05010;cds-C4N14_10105;cds-C4N14_09955;cds-C4N14_09430;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_07595;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_10260;cds-C4N14_10535;cds-C4N14_01055;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01950</t>
@@ -1121,19 +1121,19 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="C7" t="s">
         <v>103</v>
       </c>
       <c r="D7" t="n">
-        <v>0.17886760129240248</v>
+        <v>0.18172395433380684</v>
       </c>
       <c r="E7" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7924171502939525</v>
+        <v>1.0</v>
       </c>
       <c r="G7" t="n">
         <v>1.0</v>
@@ -1150,19 +1150,19 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="C8" t="s">
         <v>103</v>
       </c>
       <c r="D8" t="n">
-        <v>0.18172395433380684</v>
+        <v>0.21007858196419105</v>
       </c>
       <c r="E8" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F8" t="n">
-        <v>1.0</v>
+        <v>0.09287668233162578</v>
       </c>
       <c r="G8" t="n">
         <v>1.0</v>
@@ -1179,19 +1179,19 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="C9" t="s">
         <v>103</v>
       </c>
       <c r="D9" t="n">
-        <v>0.21007858196419105</v>
+        <v>0.22735398248170785</v>
       </c>
       <c r="E9" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09287668233162578</v>
+        <v>0.7941819656609576</v>
       </c>
       <c r="G9" t="n">
         <v>1.0</v>
@@ -1208,19 +1208,19 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="C10" t="s">
         <v>103</v>
       </c>
       <c r="D10" t="n">
-        <v>0.22735398248170785</v>
+        <v>0.22804375507198335</v>
       </c>
       <c r="E10" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7941819656609576</v>
+        <v>0.7460512121486422</v>
       </c>
       <c r="G10" t="n">
         <v>1.0</v>
@@ -1237,19 +1237,19 @@
         <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D11" t="n">
-        <v>0.22804375507198335</v>
+        <v>0.24603173001271383</v>
       </c>
       <c r="E11" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7460512121486422</v>
+        <v>0.8885911162197586</v>
       </c>
       <c r="G11" t="n">
         <v>1.0</v>
@@ -1266,19 +1266,19 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24603173001271383</v>
+        <v>0.264952151906961</v>
       </c>
       <c r="E12" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8885911162197586</v>
+        <v>1.0</v>
       </c>
       <c r="G12" t="n">
         <v>1.0</v>
@@ -1295,25 +1295,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>2.0</v>
+        <v>123.0</v>
       </c>
       <c r="C13" t="s">
         <v>103</v>
       </c>
       <c r="D13" t="n">
-        <v>0.264952151906961</v>
+        <v>0.26929002904339605</v>
       </c>
       <c r="E13" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F13" t="n">
-        <v>1.0</v>
+        <v>0.061305512135186285</v>
       </c>
       <c r="G13" t="n">
         <v>1.0</v>
       </c>
       <c r="H13" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
         <v>210</v>
@@ -1324,25 +1324,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>123.0</v>
+        <v>55.0</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D14" t="n">
-        <v>0.26929002904339605</v>
+        <v>0.2813769011641518</v>
       </c>
       <c r="E14" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F14" t="n">
-        <v>0.061305512135186285</v>
+        <v>0.465845771045323</v>
       </c>
       <c r="G14" t="n">
         <v>1.0</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="I14" t="s">
         <v>211</v>
@@ -1353,19 +1353,19 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" t="n">
-        <v>0.27636215159498956</v>
+        <v>0.3042247958934825</v>
       </c>
       <c r="E15" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9621471602143538</v>
+        <v>0.508477997768469</v>
       </c>
       <c r="G15" t="n">
         <v>1.0</v>
@@ -1382,19 +1382,19 @@
         <v>22</v>
       </c>
       <c r="B16" t="n">
-        <v>55.0</v>
+        <v>14.0</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2813769011641518</v>
+        <v>0.3091783158229535</v>
       </c>
       <c r="E16" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F16" t="n">
-        <v>0.465845771045323</v>
+        <v>0.7674574374656573</v>
       </c>
       <c r="G16" t="n">
         <v>1.0</v>
@@ -1411,19 +1411,19 @@
         <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3042247958934825</v>
+        <v>0.3233184120987199</v>
       </c>
       <c r="E17" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F17" t="n">
-        <v>0.508477997768469</v>
+        <v>0.919897167793293</v>
       </c>
       <c r="G17" t="n">
         <v>1.0</v>
@@ -1440,19 +1440,19 @@
         <v>24</v>
       </c>
       <c r="B18" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3233184120987199</v>
+        <v>0.32489997768365353</v>
       </c>
       <c r="E18" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F18" t="n">
-        <v>0.919897167793293</v>
+        <v>1.0</v>
       </c>
       <c r="G18" t="n">
         <v>1.0</v>
@@ -1469,13 +1469,13 @@
         <v>25</v>
       </c>
       <c r="B19" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D19" t="n">
-        <v>0.32489997768365353</v>
+        <v>0.3260033114220775</v>
       </c>
       <c r="E19" t="n">
         <v>0.9753451894893606</v>
@@ -1498,19 +1498,19 @@
         <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3260033114220775</v>
+        <v>0.3303577041760246</v>
       </c>
       <c r="E20" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F20" t="n">
-        <v>1.0</v>
+        <v>0.903412848975039</v>
       </c>
       <c r="G20" t="n">
         <v>1.0</v>
@@ -1527,19 +1527,19 @@
         <v>27</v>
       </c>
       <c r="B21" t="n">
-        <v>5.0</v>
+        <v>29.0</v>
       </c>
       <c r="C21" t="s">
         <v>103</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3303577041760246</v>
+        <v>0.3365963720301426</v>
       </c>
       <c r="E21" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F21" t="n">
-        <v>0.903412848975039</v>
+        <v>0.44393809915064675</v>
       </c>
       <c r="G21" t="n">
         <v>1.0</v>
@@ -1556,19 +1556,19 @@
         <v>28</v>
       </c>
       <c r="B22" t="n">
-        <v>29.0</v>
+        <v>12.0</v>
       </c>
       <c r="C22" t="s">
         <v>103</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3365963720301426</v>
+        <v>0.3654509209493363</v>
       </c>
       <c r="E22" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F22" t="n">
-        <v>0.44393809915064675</v>
+        <v>0.6678714111821729</v>
       </c>
       <c r="G22" t="n">
         <v>1.0</v>
@@ -1585,19 +1585,19 @@
         <v>29</v>
       </c>
       <c r="B23" t="n">
-        <v>12.0</v>
+        <v>50.0</v>
       </c>
       <c r="C23" t="s">
         <v>103</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3654509209493363</v>
+        <v>0.37699024118983937</v>
       </c>
       <c r="E23" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6678714111821729</v>
+        <v>0.6071987945749354</v>
       </c>
       <c r="G23" t="n">
         <v>1.0</v>
@@ -1614,19 +1614,19 @@
         <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>50.0</v>
+        <v>11.0</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D24" t="n">
-        <v>0.37699024118983937</v>
+        <v>0.3892678732054957</v>
       </c>
       <c r="E24" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6071987945749354</v>
+        <v>0.4763694314317195</v>
       </c>
       <c r="G24" t="n">
         <v>1.0</v>
@@ -1643,19 +1643,19 @@
         <v>31</v>
       </c>
       <c r="B25" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3892678732054957</v>
+        <v>0.3924005296799433</v>
       </c>
       <c r="E25" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4763694314317195</v>
+        <v>0.9870878126997162</v>
       </c>
       <c r="G25" t="n">
         <v>1.0</v>
@@ -1672,19 +1672,19 @@
         <v>32</v>
       </c>
       <c r="B26" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="C26" t="s">
         <v>103</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3924005296799433</v>
+        <v>0.3983707704342443</v>
       </c>
       <c r="E26" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9870878126997162</v>
+        <v>0.5775927429996259</v>
       </c>
       <c r="G26" t="n">
         <v>1.0</v>
@@ -1701,19 +1701,19 @@
         <v>33</v>
       </c>
       <c r="B27" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C27" t="s">
         <v>103</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3983707704342443</v>
+        <v>0.40181534205998815</v>
       </c>
       <c r="E27" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5775927429996259</v>
+        <v>0.3626283516842808</v>
       </c>
       <c r="G27" t="n">
         <v>1.0</v>
@@ -1730,19 +1730,19 @@
         <v>34</v>
       </c>
       <c r="B28" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="C28" t="s">
         <v>103</v>
       </c>
       <c r="D28" t="n">
-        <v>0.40181534205998815</v>
+        <v>0.41520858104964675</v>
       </c>
       <c r="E28" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3626283516842808</v>
+        <v>0.7280612455042306</v>
       </c>
       <c r="G28" t="n">
         <v>1.0</v>
@@ -1759,19 +1759,19 @@
         <v>35</v>
       </c>
       <c r="B29" t="n">
-        <v>19.0</v>
+        <v>4.0</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D29" t="n">
-        <v>0.41520858104964675</v>
+        <v>0.42921284386351233</v>
       </c>
       <c r="E29" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7280612455042306</v>
+        <v>1.0</v>
       </c>
       <c r="G29" t="n">
         <v>1.0</v>
@@ -1788,19 +1788,19 @@
         <v>36</v>
       </c>
       <c r="B30" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="C30" t="s">
         <v>103</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4231922576007796</v>
+        <v>0.43279130913929564</v>
       </c>
       <c r="E30" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7273145676778325</v>
+        <v>0.8064549036802674</v>
       </c>
       <c r="G30" t="n">
         <v>1.0</v>
@@ -1817,19 +1817,19 @@
         <v>37</v>
       </c>
       <c r="B31" t="n">
-        <v>4.0</v>
+        <v>16.0</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" t="n">
-        <v>0.42921284386351233</v>
+        <v>0.4412097493848476</v>
       </c>
       <c r="E31" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F31" t="n">
-        <v>1.0</v>
+        <v>0.5369267333998893</v>
       </c>
       <c r="G31" t="n">
         <v>1.0</v>
@@ -1846,19 +1846,19 @@
         <v>38</v>
       </c>
       <c r="B32" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="C32" t="s">
         <v>103</v>
       </c>
       <c r="D32" t="n">
-        <v>0.43279130913929564</v>
+        <v>0.46116171799930905</v>
       </c>
       <c r="E32" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8064549036802674</v>
+        <v>0.8706136779671783</v>
       </c>
       <c r="G32" t="n">
         <v>1.0</v>
@@ -1875,19 +1875,19 @@
         <v>39</v>
       </c>
       <c r="B33" t="n">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="C33" t="s">
         <v>103</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4412097493848476</v>
+        <v>0.488017592289521</v>
       </c>
       <c r="E33" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5369267333998893</v>
+        <v>0.9999847736117387</v>
       </c>
       <c r="G33" t="n">
         <v>1.0</v>
@@ -1910,13 +1910,13 @@
         <v>103</v>
       </c>
       <c r="D34" t="n">
-        <v>0.46116171799930905</v>
+        <v>0.5171034420780682</v>
       </c>
       <c r="E34" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8706136779671783</v>
+        <v>0.781984778448393</v>
       </c>
       <c r="G34" t="n">
         <v>1.0</v>
@@ -1933,19 +1933,19 @@
         <v>41</v>
       </c>
       <c r="B35" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C35" t="s">
         <v>104</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5066778271390562</v>
+        <v>0.5350402894694712</v>
       </c>
       <c r="E35" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9167500897604901</v>
+        <v>0.9679524272519688</v>
       </c>
       <c r="G35" t="n">
         <v>1.0</v>
@@ -1962,19 +1962,19 @@
         <v>42</v>
       </c>
       <c r="B36" t="n">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5171034420780682</v>
+        <v>0.5448136894439932</v>
       </c>
       <c r="E36" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F36" t="n">
-        <v>0.781984778448393</v>
+        <v>1.0</v>
       </c>
       <c r="G36" t="n">
         <v>1.0</v>
@@ -1991,13 +1991,13 @@
         <v>43</v>
       </c>
       <c r="B37" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C37" t="s">
         <v>104</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5448136894439932</v>
+        <v>0.5523589678588878</v>
       </c>
       <c r="E37" t="n">
         <v>0.9753451894893606</v>
@@ -2020,19 +2020,19 @@
         <v>44</v>
       </c>
       <c r="B38" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5523589678588878</v>
+        <v>0.5534072824344696</v>
       </c>
       <c r="E38" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F38" t="n">
-        <v>1.0</v>
+        <v>0.7695544060105822</v>
       </c>
       <c r="G38" t="n">
         <v>1.0</v>
@@ -2049,19 +2049,19 @@
         <v>45</v>
       </c>
       <c r="B39" t="n">
-        <v>10.0</v>
+        <v>22.0</v>
       </c>
       <c r="C39" t="s">
         <v>103</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5534072824344696</v>
+        <v>0.5550144597369286</v>
       </c>
       <c r="E39" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7695544060105822</v>
+        <v>0.7521287248408972</v>
       </c>
       <c r="G39" t="n">
         <v>1.0</v>
@@ -2078,19 +2078,19 @@
         <v>46</v>
       </c>
       <c r="B40" t="n">
-        <v>22.0</v>
+        <v>3.0</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5550144597369286</v>
+        <v>0.5980392037228529</v>
       </c>
       <c r="E40" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7521287248408972</v>
+        <v>1.0</v>
       </c>
       <c r="G40" t="n">
         <v>1.0</v>
@@ -2110,10 +2110,10 @@
         <v>3.0</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5980392037228529</v>
+        <v>0.6114296067334367</v>
       </c>
       <c r="E41" t="n">
         <v>0.9753451894893606</v>
@@ -2136,13 +2136,13 @@
         <v>48</v>
       </c>
       <c r="B42" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6114296067334367</v>
+        <v>0.6205182243228197</v>
       </c>
       <c r="E42" t="n">
         <v>0.9753451894893606</v>
@@ -2165,19 +2165,19 @@
         <v>49</v>
       </c>
       <c r="B43" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="C43" t="s">
         <v>104</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6205182243228197</v>
+        <v>0.6302887595435434</v>
       </c>
       <c r="E43" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F43" t="n">
-        <v>1.0</v>
+        <v>0.9921727341218748</v>
       </c>
       <c r="G43" t="n">
         <v>1.0</v>
@@ -2194,19 +2194,19 @@
         <v>50</v>
       </c>
       <c r="B44" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6302887595435434</v>
+        <v>0.6318136759709689</v>
       </c>
       <c r="E44" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9921727341218748</v>
+        <v>0.5874397849115895</v>
       </c>
       <c r="G44" t="n">
         <v>1.0</v>
@@ -2223,19 +2223,19 @@
         <v>51</v>
       </c>
       <c r="B45" t="n">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6318136759709689</v>
+        <v>0.6332771207218955</v>
       </c>
       <c r="E45" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5874397849115895</v>
+        <v>1.0</v>
       </c>
       <c r="G45" t="n">
         <v>1.0</v>
@@ -2252,19 +2252,19 @@
         <v>52</v>
       </c>
       <c r="B46" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6332771207218955</v>
+        <v>0.6432444132763437</v>
       </c>
       <c r="E46" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F46" t="n">
-        <v>1.0</v>
+        <v>0.6726569631832813</v>
       </c>
       <c r="G46" t="n">
         <v>1.0</v>
@@ -2281,19 +2281,19 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="C47" t="s">
         <v>103</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6432444132763437</v>
+        <v>0.6501077432929538</v>
       </c>
       <c r="E47" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6726569631832813</v>
+        <v>0.7259738897690644</v>
       </c>
       <c r="G47" t="n">
         <v>1.0</v>
@@ -2310,19 +2310,19 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6501077432929538</v>
+        <v>0.6604255348563357</v>
       </c>
       <c r="E48" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7259738897690644</v>
+        <v>0.9266083532665383</v>
       </c>
       <c r="G48" t="n">
         <v>1.0</v>
@@ -2339,19 +2339,19 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>356.0</v>
+        <v>37.0</v>
       </c>
       <c r="C49" t="s">
         <v>103</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6713786267261836</v>
+        <v>0.6764754346845254</v>
       </c>
       <c r="E49" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F49" t="n">
-        <v>0.6283105023053193</v>
+        <v>0.594063053837655</v>
       </c>
       <c r="G49" t="n">
         <v>1.0</v>
@@ -2368,19 +2368,19 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>37.0</v>
+        <v>21.0</v>
       </c>
       <c r="C50" t="s">
         <v>103</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6764754346845254</v>
+        <v>0.6800769076018288</v>
       </c>
       <c r="E50" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F50" t="n">
-        <v>0.594063053837655</v>
+        <v>0.11171120483919499</v>
       </c>
       <c r="G50" t="n">
         <v>1.0</v>
@@ -2397,19 +2397,19 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>21.0</v>
+        <v>14.0</v>
       </c>
       <c r="C51" t="s">
         <v>103</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6800769076018288</v>
+        <v>0.6840918143212065</v>
       </c>
       <c r="E51" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F51" t="n">
-        <v>0.11171120483919499</v>
+        <v>0.7907999993879392</v>
       </c>
       <c r="G51" t="n">
         <v>1.0</v>
@@ -2426,19 +2426,19 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>14.0</v>
+        <v>355.0</v>
       </c>
       <c r="C52" t="s">
         <v>103</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6840918143212065</v>
+        <v>0.6908041568024559</v>
       </c>
       <c r="E52" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F52" t="n">
-        <v>0.7907999993879392</v>
+        <v>0.6401906415734178</v>
       </c>
       <c r="G52" t="n">
         <v>1.0</v>
@@ -3180,19 +3180,19 @@
         <v>84</v>
       </c>
       <c r="B78" t="n">
-        <v>21.0</v>
+        <v>69.0</v>
       </c>
       <c r="C78" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8282824045985517</v>
+        <v>0.8436443523294477</v>
       </c>
       <c r="E78" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8314091033053419</v>
+        <v>0.7250873423093078</v>
       </c>
       <c r="G78" t="n">
         <v>1.0</v>
@@ -3209,19 +3209,19 @@
         <v>85</v>
       </c>
       <c r="B79" t="n">
-        <v>69.0</v>
+        <v>20.0</v>
       </c>
       <c r="C79" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8436443523294477</v>
+        <v>0.8495021148812789</v>
       </c>
       <c r="E79" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F79" t="n">
-        <v>0.7250873423093078</v>
+        <v>0.8709454950309237</v>
       </c>
       <c r="G79" t="n">
         <v>1.0</v>
@@ -3238,19 +3238,19 @@
         <v>86</v>
       </c>
       <c r="B80" t="n">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="C80" t="s">
         <v>104</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8495021148812789</v>
+        <v>0.8503047373507165</v>
       </c>
       <c r="E80" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F80" t="n">
-        <v>0.8709454950309237</v>
+        <v>0.9464012502799048</v>
       </c>
       <c r="G80" t="n">
         <v>1.0</v>
@@ -3267,19 +3267,19 @@
         <v>87</v>
       </c>
       <c r="B81" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="C81" t="s">
         <v>104</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8503047373507165</v>
+        <v>0.8587693902916358</v>
       </c>
       <c r="E81" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9464012502799048</v>
+        <v>0.6388534562738633</v>
       </c>
       <c r="G81" t="n">
         <v>1.0</v>
@@ -3296,19 +3296,19 @@
         <v>88</v>
       </c>
       <c r="B82" t="n">
-        <v>18.0</v>
+        <v>6.0</v>
       </c>
       <c r="C82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8587693902916358</v>
+        <v>0.8597325284535079</v>
       </c>
       <c r="E82" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F82" t="n">
-        <v>0.6388534562738633</v>
+        <v>0.9900009980032503</v>
       </c>
       <c r="G82" t="n">
         <v>1.0</v>
@@ -3328,16 +3328,16 @@
         <v>6.0</v>
       </c>
       <c r="C83" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8597325284535079</v>
+        <v>0.8703338365556166</v>
       </c>
       <c r="E83" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9900009980032503</v>
+        <v>0.7290976000168435</v>
       </c>
       <c r="G83" t="n">
         <v>1.0</v>
@@ -3357,16 +3357,16 @@
         <v>6.0</v>
       </c>
       <c r="C84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8703338365556166</v>
+        <v>0.871179397516028</v>
       </c>
       <c r="E84" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7290976000168435</v>
+        <v>0.8716494410551745</v>
       </c>
       <c r="G84" t="n">
         <v>1.0</v>
@@ -3383,19 +3383,19 @@
         <v>91</v>
       </c>
       <c r="B85" t="n">
-        <v>6.0</v>
+        <v>22.0</v>
       </c>
       <c r="C85" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D85" t="n">
-        <v>0.871179397516028</v>
+        <v>0.881064860214144</v>
       </c>
       <c r="E85" t="n">
         <v>0.9753451894893606</v>
       </c>
       <c r="F85" t="n">
-        <v>0.8716494410551745</v>
+        <v>0.8476932756380645</v>
       </c>
       <c r="G85" t="n">
         <v>1.0</v>
